--- a/data/model_data/twfe_POEWC_perfirm.xlsx
+++ b/data/model_data/twfe_POEWC_perfirm.xlsx
@@ -391,16 +391,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>23.54256706158449</v>
+        <v>47.00555469598082</v>
       </c>
       <c r="C2">
-        <v>24.28866452092986</v>
+        <v>20.37576189709791</v>
       </c>
       <c r="D2">
-        <v>0.9692820715316621</v>
+        <v>2.306934824492416</v>
       </c>
       <c r="E2">
-        <v>0.3324629002275542</v>
+        <v>0.02116650011122812</v>
       </c>
     </row>
     <row r="3">
@@ -410,16 +410,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>-1.483976485298223</v>
+        <v>-2.971478089909075</v>
       </c>
       <c r="C3">
-        <v>6.539970691034123</v>
+        <v>5.48638174403219</v>
       </c>
       <c r="D3">
-        <v>-0.2269087363545312</v>
+        <v>-0.5416097946777582</v>
       </c>
       <c r="E3">
-        <v>0.8205062691957938</v>
+        <v>0.58815141873129</v>
       </c>
     </row>
     <row r="4">
@@ -429,16 +429,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>53.18623140382693</v>
+        <v>106.3770731427346</v>
       </c>
       <c r="C4">
-        <v>33.76686211471742</v>
+        <v>28.32702233870727</v>
       </c>
       <c r="D4">
-        <v>1.57510138854879</v>
+        <v>3.755321398443507</v>
       </c>
       <c r="E4">
-        <v>0.115311889318263</v>
+        <v>0.0001783773029741578</v>
       </c>
     </row>
     <row r="5">
@@ -448,16 +448,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>-15.5632275079715</v>
+        <v>-31.14435547666286</v>
       </c>
       <c r="C5">
-        <v>33.76686211472029</v>
+        <v>28.32702233870728</v>
       </c>
       <c r="D5">
-        <v>-0.4609023916731333</v>
+        <v>-1.099457440470397</v>
       </c>
       <c r="E5">
-        <v>0.6448936185286109</v>
+        <v>0.2717091331944915</v>
       </c>
     </row>
     <row r="6">
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>-16.25202805521306</v>
+        <v>-32.54785295460682</v>
       </c>
       <c r="C6">
-        <v>33.76686211471274</v>
+        <v>28.32702233870482</v>
       </c>
       <c r="D6">
-        <v>-0.4813011052078721</v>
+        <v>-1.149003681553032</v>
       </c>
       <c r="E6">
-        <v>0.6303287602010579</v>
+        <v>0.250700389976376</v>
       </c>
     </row>
     <row r="7">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B7">
-        <v>-15.11445743142749</v>
+        <v>-30.28156665988984</v>
       </c>
       <c r="C7">
-        <v>33.88394269780751</v>
+        <v>28.42524124579383</v>
       </c>
       <c r="D7">
-        <v>-0.4460654878986525</v>
+        <v>-1.065305528915104</v>
       </c>
       <c r="E7">
-        <v>0.6555740132158764</v>
+        <v>0.286874269846504</v>
       </c>
     </row>
     <row r="8">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B8">
-        <v>3.2088856885728</v>
+        <v>6.393137981771136</v>
       </c>
       <c r="C8">
-        <v>33.88394269780787</v>
+        <v>28.42524124579</v>
       </c>
       <c r="D8">
-        <v>0.09470225224942314</v>
+        <v>0.2249105971164979</v>
       </c>
       <c r="E8">
-        <v>0.924556058274405</v>
+        <v>0.8220732289278653</v>
       </c>
     </row>
     <row r="9">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B9">
-        <v>116.3670882517892</v>
+        <v>232.5965895302573</v>
       </c>
       <c r="C9">
-        <v>33.76686211471875</v>
+        <v>28.32702233870529</v>
       </c>
       <c r="D9">
-        <v>3.446191945714302</v>
+        <v>8.211120348235243</v>
       </c>
       <c r="E9">
-        <v>0.0005743827881268766</v>
+        <v>4.0208169660445E-16</v>
       </c>
     </row>
     <row r="10">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B10">
-        <v>80.67096850870632</v>
+        <v>161.348250092164</v>
       </c>
       <c r="C10">
-        <v>33.88394269781691</v>
+        <v>28.42524124579224</v>
       </c>
       <c r="D10">
-        <v>2.380802294117438</v>
+        <v>5.676231511880246</v>
       </c>
       <c r="E10">
-        <v>0.01732139051294518</v>
+        <v>1.591245058466935E-08</v>
       </c>
     </row>
     <row r="11">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B11">
-        <v>-10.86399988728143</v>
+        <v>-21.75015104309385</v>
       </c>
       <c r="C11">
-        <v>33.88394269781327</v>
+        <v>28.4252412457939</v>
       </c>
       <c r="D11">
-        <v>-0.3206238419232879</v>
+        <v>-0.765170323622574</v>
       </c>
       <c r="E11">
-        <v>0.748512165896112</v>
+        <v>0.4442660171330832</v>
       </c>
     </row>
     <row r="12">
@@ -581,16 +581,16 @@
         </is>
       </c>
       <c r="B12">
-        <v>-16.98175411785961</v>
+        <v>-34.00634566703999</v>
       </c>
       <c r="C12">
-        <v>33.8839426978131</v>
+        <v>28.42524124579298</v>
       </c>
       <c r="D12">
-        <v>-0.5011740891344271</v>
+        <v>-1.196343256086632</v>
       </c>
       <c r="E12">
-        <v>0.6162761039532506</v>
+        <v>0.2317132478219724</v>
       </c>
     </row>
     <row r="13">
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="B13">
-        <v>6.021397946980303</v>
+        <v>11.93250856117317</v>
       </c>
       <c r="C13">
-        <v>33.88394269780169</v>
+        <v>28.42524124579404</v>
       </c>
       <c r="D13">
-        <v>0.1777065319901794</v>
+        <v>0.4197856566279371</v>
       </c>
       <c r="E13">
-        <v>0.8589624263895809</v>
+        <v>0.6746899342313768</v>
       </c>
     </row>
     <row r="14">
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B14">
-        <v>2.129520368615323</v>
+        <v>4.231218758133842</v>
       </c>
       <c r="C14">
-        <v>33.75904230517789</v>
+        <v>28.32046230008606</v>
       </c>
       <c r="D14">
-        <v>0.06307999940770538</v>
+        <v>0.1494050031139846</v>
       </c>
       <c r="E14">
-        <v>0.9497059431105841</v>
+        <v>0.8812500636162663</v>
       </c>
     </row>
     <row r="15">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="B15">
-        <v>-11.55650325067768</v>
+        <v>-23.16094977221285</v>
       </c>
       <c r="C15">
-        <v>33.8839426978121</v>
+        <v>28.42524124579471</v>
       </c>
       <c r="D15">
-        <v>-0.3410613503198934</v>
+        <v>-0.8148022235568302</v>
       </c>
       <c r="E15">
-        <v>0.7330752560229878</v>
+        <v>0.4152885656154948</v>
       </c>
     </row>
     <row r="16">
@@ -657,16 +657,16 @@
         </is>
       </c>
       <c r="B16">
-        <v>-7.949651303639054</v>
+        <v>-16.00021230861306</v>
       </c>
       <c r="C16">
-        <v>33.75904230518255</v>
+        <v>28.32046230008513</v>
       </c>
       <c r="D16">
-        <v>-0.2354821334021864</v>
+        <v>-0.5649700255269124</v>
       </c>
       <c r="E16">
-        <v>0.8138465632635925</v>
+        <v>0.5721614520125045</v>
       </c>
     </row>
     <row r="17">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="B17">
-        <v>25.20375540815483</v>
+        <v>50.38136217928925</v>
       </c>
       <c r="C17">
-        <v>33.75904230517546</v>
+        <v>28.32046230008985</v>
       </c>
       <c r="D17">
-        <v>0.746577914749997</v>
+        <v>1.778973861564732</v>
       </c>
       <c r="E17">
-        <v>0.4553621293395804</v>
+        <v>0.07540532936656377</v>
       </c>
     </row>
     <row r="18">
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="B18">
-        <v>-15.29134389401999</v>
+        <v>-30.76026724187221</v>
       </c>
       <c r="C18">
-        <v>33.88394269781265</v>
+        <v>28.42524124579113</v>
       </c>
       <c r="D18">
-        <v>-0.4512858503626</v>
+        <v>-1.082146215607821</v>
       </c>
       <c r="E18">
-        <v>0.651807932835535</v>
+        <v>0.279326121964462</v>
       </c>
     </row>
     <row r="19">
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="B19">
-        <v>34.67502191769474</v>
+        <v>69.29218431287657</v>
       </c>
       <c r="C19">
-        <v>33.75904230518109</v>
+        <v>28.32046230008811</v>
       </c>
       <c r="D19">
-        <v>1.027132867225119</v>
+        <v>2.446717980047274</v>
       </c>
       <c r="E19">
-        <v>0.3044198253232301</v>
+        <v>0.01450723058660218</v>
       </c>
     </row>
     <row r="20">
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="B20">
-        <v>-13.74092447065923</v>
+        <v>-27.50333875719297</v>
       </c>
       <c r="C20">
-        <v>33.75904230517119</v>
+        <v>28.32046230008657</v>
       </c>
       <c r="D20">
-        <v>-0.4070294514413521</v>
+        <v>-0.9711472385501594</v>
       </c>
       <c r="E20">
-        <v>0.6840080708813596</v>
+        <v>0.3315996906339338</v>
       </c>
     </row>
     <row r="21">
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="B21">
-        <v>-5.910254693193923</v>
+        <v>-11.85189210676806</v>
       </c>
       <c r="C21">
-        <v>33.88394269781938</v>
+        <v>28.42524124579474</v>
       </c>
       <c r="D21">
-        <v>-0.1744264162497914</v>
+        <v>-0.4169495697251626</v>
       </c>
       <c r="E21">
-        <v>0.8615391562607245</v>
+        <v>0.6767628220523227</v>
       </c>
     </row>
     <row r="22">
@@ -771,16 +771,16 @@
         </is>
       </c>
       <c r="B22">
-        <v>-17.08928295962726</v>
+        <v>-34.22401873214973</v>
       </c>
       <c r="C22">
-        <v>33.75904230518173</v>
+        <v>28.32046230008708</v>
       </c>
       <c r="D22">
-        <v>-0.5062134999310748</v>
+        <v>-1.208455510701338</v>
       </c>
       <c r="E22">
-        <v>0.6127345932504094</v>
+        <v>0.2270238329610438</v>
       </c>
     </row>
     <row r="23">
@@ -790,16 +790,16 @@
         </is>
       </c>
       <c r="B23">
-        <v>444.8274223730804</v>
+        <v>889.5134006440219</v>
       </c>
       <c r="C23">
-        <v>33.88394269781208</v>
+        <v>28.42524124579572</v>
       </c>
       <c r="D23">
-        <v>13.12797115554688</v>
+        <v>31.29308184061891</v>
       </c>
       <c r="E23">
-        <v>1.405823145672519E-38</v>
+        <v>1.893782979498468E-173</v>
       </c>
     </row>
     <row r="24">
@@ -809,16 +809,16 @@
         </is>
       </c>
       <c r="B24">
-        <v>319.2225234471479</v>
+        <v>638.380669478342</v>
       </c>
       <c r="C24">
-        <v>33.883942697816</v>
+        <v>28.42524124579461</v>
       </c>
       <c r="D24">
-        <v>9.42105605283424</v>
+        <v>22.4582322435975</v>
       </c>
       <c r="E24">
-        <v>7.323426304049545E-21</v>
+        <v>3.638800464339209E-99</v>
       </c>
     </row>
     <row r="25">
@@ -828,16 +828,16 @@
         </is>
       </c>
       <c r="B25">
-        <v>24.78824101507144</v>
+        <v>49.4521666754484</v>
       </c>
       <c r="C25">
-        <v>33.88394269780581</v>
+        <v>28.42524124579214</v>
       </c>
       <c r="D25">
-        <v>0.7315630662035273</v>
+        <v>1.739727246211813</v>
       </c>
       <c r="E25">
-        <v>0.4644780245379281</v>
+        <v>0.08207031374152435</v>
       </c>
     </row>
     <row r="26">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="B26">
-        <v>37.15888918511049</v>
+        <v>74.33330881427881</v>
       </c>
       <c r="C26">
-        <v>33.88394269780547</v>
+        <v>28.42524124579202</v>
       </c>
       <c r="D26">
-        <v>1.096651871847166</v>
+        <v>2.615045838011414</v>
       </c>
       <c r="E26">
-        <v>0.2728594220438982</v>
+        <v>0.008992753773007721</v>
       </c>
     </row>
     <row r="27">
@@ -866,16 +866,16 @@
         </is>
       </c>
       <c r="B27">
-        <v>-12.94496813677849</v>
+        <v>-25.98294925436643</v>
       </c>
       <c r="C27">
-        <v>33.75904230517479</v>
+        <v>28.32046230008931</v>
       </c>
       <c r="D27">
-        <v>-0.3834518769744307</v>
+        <v>-0.9174620449004639</v>
       </c>
       <c r="E27">
-        <v>0.7014050621494327</v>
+        <v>0.3590180657475674</v>
       </c>
     </row>
     <row r="28">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="B28">
-        <v>26.12446538993243</v>
+        <v>52.20095401008756</v>
       </c>
       <c r="C28">
-        <v>33.75904230517603</v>
+        <v>28.32046230009004</v>
       </c>
       <c r="D28">
-        <v>0.7738509035230231</v>
+        <v>1.843223936705355</v>
       </c>
       <c r="E28">
-        <v>0.439064561738374</v>
+        <v>0.06545339228584997</v>
       </c>
     </row>
     <row r="29">
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="B29">
-        <v>34.84171478426612</v>
+        <v>69.69689490423359</v>
       </c>
       <c r="C29">
-        <v>33.88394269781144</v>
+        <v>28.42524124579204</v>
       </c>
       <c r="D29">
-        <v>1.028266252690734</v>
+        <v>2.451936794540002</v>
       </c>
       <c r="E29">
-        <v>0.3038865886032294</v>
+        <v>0.01429920054388973</v>
       </c>
     </row>
     <row r="30">
@@ -923,16 +923,16 @@
         </is>
       </c>
       <c r="B30">
-        <v>-13.03549348568923</v>
+        <v>-26.11639091526464</v>
       </c>
       <c r="C30">
-        <v>33.75904230517214</v>
+        <v>28.32046230008804</v>
       </c>
       <c r="D30">
-        <v>-0.386133391103103</v>
+        <v>-0.9221738910379107</v>
       </c>
       <c r="E30">
-        <v>0.6994183562993727</v>
+        <v>0.3565560180882789</v>
       </c>
     </row>
     <row r="31">
@@ -942,16 +942,16 @@
         </is>
       </c>
       <c r="B31">
-        <v>-11.94345828157463</v>
+        <v>-23.881538030386</v>
       </c>
       <c r="C31">
-        <v>33.88394269781401</v>
+        <v>28.42524124579245</v>
       </c>
       <c r="D31">
-        <v>-0.3524813622809352</v>
+        <v>-0.8401525188082963</v>
       </c>
       <c r="E31">
-        <v>0.7244958083907986</v>
+        <v>0.4009295374506048</v>
       </c>
     </row>
     <row r="32">
@@ -961,16 +961,16 @@
         </is>
       </c>
       <c r="B32">
-        <v>-21.20790009105163</v>
+        <v>-42.42652946329237</v>
       </c>
       <c r="C32">
-        <v>33.76686211472211</v>
+        <v>28.32702233870998</v>
       </c>
       <c r="D32">
-        <v>-0.6280684304925432</v>
+        <v>-1.497740530437428</v>
       </c>
       <c r="E32">
-        <v>0.5299948613817597</v>
+        <v>0.1343682821114596</v>
       </c>
     </row>
     <row r="33">
@@ -980,16 +980,16 @@
         </is>
       </c>
       <c r="B33">
-        <v>-13.03289002514198</v>
+        <v>-26.08778402680345</v>
       </c>
       <c r="C33">
-        <v>33.76686211472268</v>
+        <v>28.32702233870366</v>
       </c>
       <c r="D33">
-        <v>-0.3859668683712105</v>
+        <v>-0.9209504520056561</v>
       </c>
       <c r="E33">
-        <v>0.6995416714921685</v>
+        <v>0.3571942672709407</v>
       </c>
     </row>
     <row r="34">
@@ -999,16 +999,16 @@
         </is>
       </c>
       <c r="B34">
-        <v>6.698046547667712</v>
+        <v>13.37059883050576</v>
       </c>
       <c r="C34">
-        <v>33.88394269781283</v>
+        <v>28.42524124579148</v>
       </c>
       <c r="D34">
-        <v>0.197676126636233</v>
+        <v>0.4703776729594283</v>
       </c>
       <c r="E34">
-        <v>0.8433084836289881</v>
+        <v>0.638139688567269</v>
       </c>
     </row>
     <row r="35">
@@ -1018,16 +1018,16 @@
         </is>
       </c>
       <c r="B35">
-        <v>-9.704679850651544</v>
+        <v>-19.44279884209627</v>
       </c>
       <c r="C35">
-        <v>33.88394269781129</v>
+        <v>28.42524124579347</v>
       </c>
       <c r="D35">
-        <v>-0.2864094045135548</v>
+        <v>-0.6839976721384391</v>
       </c>
       <c r="E35">
-        <v>0.7745793608332079</v>
+        <v>0.4940608006373368</v>
       </c>
     </row>
     <row r="36">
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="B36">
-        <v>270.3836764770204</v>
+        <v>540.7655669271422</v>
       </c>
       <c r="C36">
-        <v>33.88394269780547</v>
+        <v>28.42524124579539</v>
       </c>
       <c r="D36">
-        <v>7.979699378211145</v>
+        <v>19.02413289129538</v>
       </c>
       <c r="E36">
-        <v>1.898343548363635E-15</v>
+        <v>5.969683727908709E-74</v>
       </c>
     </row>
     <row r="37">
@@ -1056,16 +1056,16 @@
         </is>
       </c>
       <c r="B37">
-        <v>-16.59429910176808</v>
+        <v>-33.29947551487844</v>
       </c>
       <c r="C37">
-        <v>33.88394269781506</v>
+        <v>28.42524124579165</v>
       </c>
       <c r="D37">
-        <v>-0.4897393213581998</v>
+        <v>-1.171475563811034</v>
       </c>
       <c r="E37">
-        <v>0.6243451497322779</v>
+        <v>0.2415558845303881</v>
       </c>
     </row>
     <row r="38">
@@ -1075,16 +1075,16 @@
         </is>
       </c>
       <c r="B38">
-        <v>125.5781783387301</v>
+        <v>251.0996820282764</v>
       </c>
       <c r="C38">
-        <v>33.76686211472242</v>
+        <v>28.32702233870495</v>
       </c>
       <c r="D38">
-        <v>3.718976845170869</v>
+        <v>8.864316165175731</v>
       </c>
       <c r="E38">
-        <v>0.0002027652189330218</v>
+        <v>1.744115311109819E-18</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1094,16 @@
         </is>
       </c>
       <c r="B39">
-        <v>5.788073097126945</v>
+        <v>11.60752424119112</v>
       </c>
       <c r="C39">
-        <v>33.88394269780694</v>
+        <v>28.42524124579198</v>
       </c>
       <c r="D39">
-        <v>0.1708205313870267</v>
+        <v>0.4083527081026789</v>
       </c>
       <c r="E39">
-        <v>0.8643734985491925</v>
+        <v>0.6830611783174608</v>
       </c>
     </row>
     <row r="40">
@@ -1113,16 +1113,16 @@
         </is>
       </c>
       <c r="B40">
-        <v>184.361426539314</v>
+        <v>368.6354018360266</v>
       </c>
       <c r="C40">
-        <v>33.75904230517802</v>
+        <v>28.32046230008419</v>
       </c>
       <c r="D40">
-        <v>5.461097648230274</v>
+        <v>13.01657430341208</v>
       </c>
       <c r="E40">
-        <v>5.018606298737456E-08</v>
+        <v>3.751902553999794E-37</v>
       </c>
     </row>
     <row r="41">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B41">
-        <v>-16.79897706503955</v>
+        <v>-33.58254914073378</v>
       </c>
       <c r="C41">
-        <v>33.75904230517489</v>
+        <v>28.32046230008733</v>
       </c>
       <c r="D41">
-        <v>-0.4976141477350041</v>
+        <v>-1.185805118041107</v>
       </c>
       <c r="E41">
-        <v>0.618783301400734</v>
+        <v>0.2358488805984822</v>
       </c>
     </row>
     <row r="42">
@@ -1151,16 +1151,16 @@
         </is>
       </c>
       <c r="B42">
-        <v>-18.09329021687542</v>
+        <v>-36.24485203030554</v>
       </c>
       <c r="C42">
-        <v>33.75904230517183</v>
+        <v>28.32046230008572</v>
       </c>
       <c r="D42">
-        <v>-0.5359538950577266</v>
+        <v>-1.279811453861607</v>
       </c>
       <c r="E42">
-        <v>0.5920201258950775</v>
+        <v>0.2007691091764355</v>
       </c>
     </row>
     <row r="43">
@@ -1170,16 +1170,16 @@
         </is>
       </c>
       <c r="B43">
-        <v>-15.70713492232884</v>
+        <v>-31.39675570367498</v>
       </c>
       <c r="C43">
-        <v>33.75904230517637</v>
+        <v>28.32046230008809</v>
       </c>
       <c r="D43">
-        <v>-0.4652719345631563</v>
+        <v>-1.108624406303471</v>
       </c>
       <c r="E43">
-        <v>0.6417619830315228</v>
+        <v>0.2677338203921892</v>
       </c>
     </row>
     <row r="44">
@@ -1189,16 +1189,16 @@
         </is>
       </c>
       <c r="B44">
-        <v>-0.8429969890455874</v>
+        <v>-1.682525239228431</v>
       </c>
       <c r="C44">
-        <v>33.75904230517884</v>
+        <v>28.32046230008905</v>
       </c>
       <c r="D44">
-        <v>-0.02497099833060924</v>
+        <v>-0.05941023212827782</v>
       </c>
       <c r="E44">
-        <v>0.9800793382440154</v>
+        <v>0.9526316675361484</v>
       </c>
     </row>
     <row r="45">
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="B45">
-        <v>-1.071822009705755</v>
+        <v>-2.129718446066662</v>
       </c>
       <c r="C45">
-        <v>33.75904230517697</v>
+        <v>28.32046230008942</v>
       </c>
       <c r="D45">
-        <v>-0.03174918293050601</v>
+        <v>-0.07520069494274947</v>
       </c>
       <c r="E45">
-        <v>0.9746736516013588</v>
+        <v>0.9400630195418711</v>
       </c>
     </row>
     <row r="46">
@@ -1227,16 +1227,16 @@
         </is>
       </c>
       <c r="B46">
-        <v>-18.51752142675219</v>
+        <v>-37.01772089448966</v>
       </c>
       <c r="C46">
-        <v>33.75904230517966</v>
+        <v>28.32046230008773</v>
       </c>
       <c r="D46">
-        <v>-0.5485203418792197</v>
+        <v>-1.307101575611461</v>
       </c>
       <c r="E46">
-        <v>0.5833651863830631</v>
+        <v>0.1913378080820297</v>
       </c>
     </row>
     <row r="47">
@@ -1246,16 +1246,16 @@
         </is>
       </c>
       <c r="B47">
-        <v>-15.6264541519914</v>
+        <v>-31.24281964081756</v>
       </c>
       <c r="C47">
-        <v>33.76686211471359</v>
+        <v>28.32702233870856</v>
       </c>
       <c r="D47">
-        <v>-0.4627748382098649</v>
+        <v>-1.102933420507266</v>
       </c>
       <c r="E47">
-        <v>0.6435508669790326</v>
+        <v>0.2701970171558167</v>
       </c>
     </row>
     <row r="48">
@@ -1265,16 +1265,16 @@
         </is>
       </c>
       <c r="B48">
-        <v>-12.95107310745006</v>
+        <v>-25.90828374686228</v>
       </c>
       <c r="C48">
-        <v>33.75904230517511</v>
+        <v>28.32046230008678</v>
       </c>
       <c r="D48">
-        <v>-0.3836327165437605</v>
+        <v>-0.9148255940293349</v>
       </c>
       <c r="E48">
-        <v>0.7012710155786116</v>
+        <v>0.3604003265395757</v>
       </c>
     </row>
     <row r="49">
@@ -1284,16 +1284,16 @@
         </is>
       </c>
       <c r="B49">
-        <v>-25.54874745146388</v>
+        <v>-51.09066394180545</v>
       </c>
       <c r="C49">
-        <v>33.88394269781317</v>
+        <v>28.42524124579201</v>
       </c>
       <c r="D49">
-        <v>-0.7540075155750033</v>
+        <v>-1.797369580790058</v>
       </c>
       <c r="E49">
-        <v>0.4508889586833242</v>
+        <v>0.07243713638621377</v>
       </c>
     </row>
     <row r="50">
@@ -1303,16 +1303,16 @@
         </is>
       </c>
       <c r="B50">
-        <v>-20.29201555988382</v>
+        <v>-40.64506072071595</v>
       </c>
       <c r="C50">
-        <v>33.75904230518131</v>
+        <v>28.32046230008652</v>
       </c>
       <c r="D50">
-        <v>-0.6010838629971864</v>
+        <v>-1.435183518193903</v>
       </c>
       <c r="E50">
-        <v>0.5478180882342577</v>
+        <v>0.1514008828510464</v>
       </c>
     </row>
     <row r="51">
@@ -1322,16 +1322,16 @@
         </is>
       </c>
       <c r="B51">
-        <v>-17.22232395095307</v>
+        <v>-34.42699479758875</v>
       </c>
       <c r="C51">
-        <v>33.75904230517909</v>
+        <v>28.32046230008789</v>
       </c>
       <c r="D51">
-        <v>-0.5101543993832708</v>
+        <v>-1.215622627653289</v>
       </c>
       <c r="E51">
-        <v>0.6099713603153244</v>
+        <v>0.2242810928705721</v>
       </c>
     </row>
     <row r="52">
@@ -1341,16 +1341,16 @@
         </is>
       </c>
       <c r="B52">
-        <v>-21.12283541493104</v>
+        <v>-42.23925679603148</v>
       </c>
       <c r="C52">
-        <v>33.75904230518231</v>
+        <v>28.3204623000891</v>
       </c>
       <c r="D52">
-        <v>-0.6256941539982165</v>
+        <v>-1.49147483358344</v>
       </c>
       <c r="E52">
-        <v>0.5315511587543329</v>
+        <v>0.136004374704092</v>
       </c>
     </row>
     <row r="53">
@@ -1360,16 +1360,16 @@
         </is>
       </c>
       <c r="B53">
-        <v>-13.79638396036205</v>
+        <v>-27.57617098342799</v>
       </c>
       <c r="C53">
-        <v>33.75904230517653</v>
+        <v>28.32046230009053</v>
       </c>
       <c r="D53">
-        <v>-0.4086722554403311</v>
+        <v>-0.9737189559698624</v>
       </c>
       <c r="E53">
-        <v>0.6828020087536006</v>
+        <v>0.3303211690691568</v>
       </c>
     </row>
     <row r="54">
@@ -1379,16 +1379,16 @@
         </is>
       </c>
       <c r="B54">
-        <v>-22.34011247752258</v>
+        <v>-44.67894711518996</v>
       </c>
       <c r="C54">
-        <v>33.75904230517891</v>
+        <v>28.32046230008888</v>
       </c>
       <c r="D54">
-        <v>-0.6617519619060824</v>
+        <v>-1.577620684357604</v>
       </c>
       <c r="E54">
-        <v>0.5081682019235427</v>
+        <v>0.1148207467809845</v>
       </c>
     </row>
     <row r="55">
@@ -1398,16 +1398,16 @@
         </is>
       </c>
       <c r="B55">
-        <v>-21.89363702782942</v>
+        <v>-43.81662904864952</v>
       </c>
       <c r="C55">
-        <v>33.75904230518476</v>
+        <v>28.32046230008868</v>
       </c>
       <c r="D55">
-        <v>-0.648526603033018</v>
+        <v>-1.547172097134598</v>
       </c>
       <c r="E55">
-        <v>0.516681526559081</v>
+        <v>0.1219897926666592</v>
       </c>
     </row>
     <row r="56">
@@ -1417,16 +1417,16 @@
         </is>
       </c>
       <c r="B56">
-        <v>-21.89709141939886</v>
+        <v>-43.8817146822885</v>
       </c>
       <c r="C56">
-        <v>33.75904230518121</v>
+        <v>28.32046230008725</v>
       </c>
       <c r="D56">
-        <v>-0.6486289279609742</v>
+        <v>-1.549470281145562</v>
       </c>
       <c r="E56">
-        <v>0.5166153761088168</v>
+        <v>0.121436754135369</v>
       </c>
     </row>
     <row r="57">
@@ -1436,16 +1436,16 @@
         </is>
       </c>
       <c r="B57">
-        <v>-24.76379092703261</v>
+        <v>-49.58189771953459</v>
       </c>
       <c r="C57">
-        <v>33.75904230517683</v>
+        <v>28.32046230008491</v>
       </c>
       <c r="D57">
-        <v>-0.7335454217916358</v>
+        <v>-1.750744645131938</v>
       </c>
       <c r="E57">
-        <v>0.463268695978958</v>
+        <v>0.08015274143703793</v>
       </c>
     </row>
     <row r="58">
@@ -1455,16 +1455,16 @@
         </is>
       </c>
       <c r="B58">
-        <v>-22.94508847728178</v>
+        <v>-45.94633748978116</v>
       </c>
       <c r="C58">
-        <v>33.75904230517843</v>
+        <v>28.32046230008526</v>
       </c>
       <c r="D58">
-        <v>-0.6796723754738192</v>
+        <v>-1.622372438801708</v>
       </c>
       <c r="E58">
-        <v>0.4967511433427096</v>
+        <v>0.104891028247121</v>
       </c>
     </row>
     <row r="59">
@@ -1474,16 +1474,16 @@
         </is>
       </c>
       <c r="B59">
-        <v>-10.55109333430163</v>
+        <v>-21.09772788154014</v>
       </c>
       <c r="C59">
-        <v>33.75904230517678</v>
+        <v>28.32046230008635</v>
       </c>
       <c r="D59">
-        <v>-0.3125412515829476</v>
+        <v>-0.7449641060935581</v>
       </c>
       <c r="E59">
-        <v>0.754645461188561</v>
+        <v>0.4563863866185451</v>
       </c>
     </row>
     <row r="60">
@@ -1493,16 +1493,16 @@
         </is>
       </c>
       <c r="B60">
-        <v>-23.9487732849316</v>
+        <v>-48.01830379539803</v>
       </c>
       <c r="C60">
-        <v>33.75904230518346</v>
+        <v>28.32046230008773</v>
       </c>
       <c r="D60">
-        <v>-0.7094032190970785</v>
+        <v>-1.695533896537038</v>
       </c>
       <c r="E60">
-        <v>0.4781155140706406</v>
+        <v>0.09013950249503112</v>
       </c>
     </row>
     <row r="61">
@@ -1512,16 +1512,16 @@
         </is>
       </c>
       <c r="B61">
-        <v>-19.61637286759408</v>
+        <v>-39.23774852382459</v>
       </c>
       <c r="C61">
-        <v>33.75904230517783</v>
+        <v>28.32046230008558</v>
       </c>
       <c r="D61">
-        <v>-0.5810701823311322</v>
+        <v>-1.385491102089319</v>
       </c>
       <c r="E61">
-        <v>0.5612257939351188</v>
+        <v>0.1660664351088785</v>
       </c>
     </row>
     <row r="62">
@@ -1531,16 +1531,16 @@
         </is>
       </c>
       <c r="B62">
-        <v>-23.92368096161909</v>
+        <v>-47.87732229299924</v>
       </c>
       <c r="C62">
-        <v>33.75904230517737</v>
+        <v>28.32046230008532</v>
       </c>
       <c r="D62">
-        <v>-0.7086599419898262</v>
+        <v>-1.690555817404683</v>
       </c>
       <c r="E62">
-        <v>0.4785767019293587</v>
+        <v>0.09108717211032485</v>
       </c>
     </row>
     <row r="63">
@@ -1550,16 +1550,16 @@
         </is>
       </c>
       <c r="B63">
-        <v>-25.45815537216207</v>
+        <v>-50.91850702336914</v>
       </c>
       <c r="C63">
-        <v>33.75904230517502</v>
+        <v>28.32046230008649</v>
       </c>
       <c r="D63">
-        <v>-0.754113672479966</v>
+        <v>-1.797940530907705</v>
       </c>
       <c r="E63">
-        <v>0.4508252251935865</v>
+        <v>0.07234656634802895</v>
       </c>
     </row>
     <row r="64">
@@ -1569,16 +1569,16 @@
         </is>
       </c>
       <c r="B64">
-        <v>-19.99912634941522</v>
+        <v>-40.07794636338762</v>
       </c>
       <c r="C64">
-        <v>33.75904230518244</v>
+        <v>28.32046230008977</v>
       </c>
       <c r="D64">
-        <v>-0.5924079886100651</v>
+        <v>-1.415158620601351</v>
       </c>
       <c r="E64">
-        <v>0.5536108032909123</v>
+        <v>0.1571873474097982</v>
       </c>
     </row>
     <row r="65">
@@ -1588,16 +1588,16 @@
         </is>
       </c>
       <c r="B65">
-        <v>-15.99352316181562</v>
+        <v>-31.97706974927024</v>
       </c>
       <c r="C65">
-        <v>33.75904230517277</v>
+        <v>28.32046230009057</v>
       </c>
       <c r="D65">
-        <v>-0.4737552391812074</v>
+        <v>-1.129115386974738</v>
       </c>
       <c r="E65">
-        <v>0.6357002355742172</v>
+        <v>0.2589929840219941</v>
       </c>
     </row>
     <row r="66">
@@ -1607,16 +1607,16 @@
         </is>
       </c>
       <c r="B66">
-        <v>-11.14519366343879</v>
+        <v>-22.27829773668577</v>
       </c>
       <c r="C66">
-        <v>33.7590423051729</v>
+        <v>28.32046230008863</v>
       </c>
       <c r="D66">
-        <v>-0.3301395093702349</v>
+        <v>-0.7866502142733753</v>
       </c>
       <c r="E66">
-        <v>0.7413117881297613</v>
+        <v>0.4315856446468507</v>
       </c>
     </row>
     <row r="67">
@@ -1626,16 +1626,16 @@
         </is>
       </c>
       <c r="B67">
-        <v>-12.8202828758031</v>
+        <v>-25.66138187539357</v>
       </c>
       <c r="C67">
-        <v>33.75904230517464</v>
+        <v>28.32046230008936</v>
       </c>
       <c r="D67">
-        <v>-0.3797584884046899</v>
+        <v>-0.9061074499236758</v>
       </c>
       <c r="E67">
-        <v>0.7041447996483363</v>
+        <v>0.3649949105493355</v>
       </c>
     </row>
     <row r="68">
@@ -1645,16 +1645,16 @@
         </is>
       </c>
       <c r="B68">
-        <v>-25.05862822980673</v>
+        <v>-50.16837732098162</v>
       </c>
       <c r="C68">
-        <v>33.75904230517694</v>
+        <v>28.32046230008697</v>
       </c>
       <c r="D68">
-        <v>-0.7422790019716877</v>
+        <v>-1.771453332554799</v>
       </c>
       <c r="E68">
-        <v>0.4579617651186534</v>
+        <v>0.0766470608175694</v>
       </c>
     </row>
     <row r="69">
@@ -1664,16 +1664,16 @@
         </is>
       </c>
       <c r="B69">
-        <v>-25.17464507522238</v>
+        <v>-50.35859494228425</v>
       </c>
       <c r="C69">
-        <v>33.88394269780488</v>
+        <v>28.42524124579291</v>
       </c>
       <c r="D69">
-        <v>-0.7429668176381751</v>
+        <v>-1.771615393052736</v>
       </c>
       <c r="E69">
-        <v>0.4575452707117309</v>
+        <v>0.07662012782185017</v>
       </c>
     </row>
     <row r="70">
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="B70">
-        <v>-17.83475590815643</v>
+        <v>-35.65870628277636</v>
       </c>
       <c r="C70">
-        <v>33.88394269780705</v>
+        <v>28.42524124579412</v>
       </c>
       <c r="D70">
-        <v>-0.5263483080235136</v>
+        <v>-1.254473303302308</v>
       </c>
       <c r="E70">
-        <v>0.5986753194876056</v>
+        <v>0.2098257140511663</v>
       </c>
     </row>
     <row r="71">
@@ -1702,16 +1702,16 @@
         </is>
       </c>
       <c r="B71">
-        <v>-23.07010911028821</v>
+        <v>-46.16208563941256</v>
       </c>
       <c r="C71">
-        <v>33.75904230518142</v>
+        <v>28.32046230008696</v>
       </c>
       <c r="D71">
-        <v>-0.683375698330973</v>
+        <v>-1.629990540065118</v>
       </c>
       <c r="E71">
-        <v>0.4944089341863437</v>
+        <v>0.1032707469217156</v>
       </c>
     </row>
     <row r="72">
@@ -1721,16 +1721,16 @@
         </is>
       </c>
       <c r="B72">
-        <v>-24.26455919735612</v>
+        <v>-48.50547033878851</v>
       </c>
       <c r="C72">
-        <v>33.76686211471964</v>
+        <v>28.32702233870566</v>
       </c>
       <c r="D72">
-        <v>-0.7185908810513584</v>
+        <v>-1.71233918478298</v>
       </c>
       <c r="E72">
-        <v>0.4724348799184156</v>
+        <v>0.08699882139816061</v>
       </c>
     </row>
     <row r="73">
@@ -1740,16 +1740,16 @@
         </is>
       </c>
       <c r="B73">
-        <v>-23.95148481511677</v>
+        <v>-47.94879183250256</v>
       </c>
       <c r="C73">
-        <v>33.75904230518151</v>
+        <v>28.32046230008567</v>
       </c>
       <c r="D73">
-        <v>-0.7094835392128579</v>
+        <v>-1.693079418140625</v>
       </c>
       <c r="E73">
-        <v>0.4780656916777341</v>
+        <v>0.09060576075544544</v>
       </c>
     </row>
     <row r="74">
@@ -1759,16 +1759,16 @@
         </is>
       </c>
       <c r="B74">
-        <v>125.4008362778356</v>
+        <v>250.8326312575797</v>
       </c>
       <c r="C74">
-        <v>33.76686211471436</v>
+        <v>28.3270223387055</v>
       </c>
       <c r="D74">
-        <v>3.713724889562378</v>
+        <v>8.854888743983755</v>
       </c>
       <c r="E74">
-        <v>0.0002070071798775638</v>
+        <v>1.891602436190449E-18</v>
       </c>
     </row>
     <row r="75">
@@ -1778,16 +1778,16 @@
         </is>
       </c>
       <c r="B75">
-        <v>0.03233449693048426</v>
+        <v>0.09185187858310406</v>
       </c>
       <c r="C75">
-        <v>33.7668621147218</v>
+        <v>28.32702233870882</v>
       </c>
       <c r="D75">
-        <v>0.0009575807435298217</v>
+        <v>0.003242553258327778</v>
       </c>
       <c r="E75">
-        <v>0.9992360088339209</v>
+        <v>0.9974131648224439</v>
       </c>
     </row>
     <row r="76">
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="B76">
-        <v>8.456198200244829</v>
+        <v>16.95204853712022</v>
       </c>
       <c r="C76">
-        <v>33.76686211472002</v>
+        <v>28.32702233870517</v>
       </c>
       <c r="D76">
-        <v>0.2504289019073084</v>
+        <v>0.5984408927428091</v>
       </c>
       <c r="E76">
-        <v>0.8022685039852366</v>
+        <v>0.5496177627910206</v>
       </c>
     </row>
     <row r="77">
@@ -1816,16 +1816,16 @@
         </is>
       </c>
       <c r="B77">
-        <v>-20.35629273188913</v>
+        <v>-40.69642090375726</v>
       </c>
       <c r="C77">
-        <v>33.76686211472003</v>
+        <v>28.32702233870704</v>
       </c>
       <c r="D77">
-        <v>-0.6028482203270876</v>
+        <v>-1.436664271208917</v>
       </c>
       <c r="E77">
-        <v>0.5466437389156955</v>
+        <v>0.1509795344194506</v>
       </c>
     </row>
     <row r="78">
@@ -1835,16 +1835,16 @@
         </is>
       </c>
       <c r="B78">
-        <v>-13.80221727721415</v>
+        <v>-27.5801257361035</v>
       </c>
       <c r="C78">
-        <v>33.76686211472363</v>
+        <v>28.32702233870673</v>
       </c>
       <c r="D78">
-        <v>-0.4087503668632526</v>
+        <v>-0.9736330704416236</v>
       </c>
       <c r="E78">
-        <v>0.6827446835091225</v>
+        <v>0.3303638151913663</v>
       </c>
     </row>
     <row r="79">
@@ -1854,16 +1854,16 @@
         </is>
       </c>
       <c r="B79">
-        <v>-15.91803141639117</v>
+        <v>-31.81405598040287</v>
       </c>
       <c r="C79">
-        <v>33.76686211471988</v>
+        <v>28.32702233870776</v>
       </c>
       <c r="D79">
-        <v>-0.4714098503530201</v>
+        <v>-1.123099194825367</v>
       </c>
       <c r="E79">
-        <v>0.6373737159257523</v>
+        <v>0.2615385392538924</v>
       </c>
     </row>
     <row r="80">
@@ -1873,16 +1873,16 @@
         </is>
       </c>
       <c r="B80">
-        <v>-19.17370510168849</v>
+        <v>-38.32937712343242</v>
       </c>
       <c r="C80">
-        <v>33.76686211472426</v>
+        <v>28.32702233870424</v>
       </c>
       <c r="D80">
-        <v>-0.5678260845365218</v>
+        <v>-1.35310293701649</v>
       </c>
       <c r="E80">
-        <v>0.5701848401703613</v>
+        <v>0.176185172407183</v>
       </c>
     </row>
     <row r="81">
@@ -1892,16 +1892,16 @@
         </is>
       </c>
       <c r="B81">
-        <v>-1.793338242711467</v>
+        <v>-3.564870091909087</v>
       </c>
       <c r="C81">
-        <v>33.76686211472092</v>
+        <v>28.32702233870766</v>
       </c>
       <c r="D81">
-        <v>-0.05310941350187371</v>
+        <v>-0.1258469756998724</v>
       </c>
       <c r="E81">
-        <v>0.95764737531073</v>
+        <v>0.8998664908272203</v>
       </c>
     </row>
     <row r="82">
@@ -1911,16 +1911,16 @@
         </is>
       </c>
       <c r="B82">
-        <v>-22.20126535972084</v>
+        <v>-44.37899797794044</v>
       </c>
       <c r="C82">
-        <v>33.7668621147216</v>
+        <v>28.32702233870491</v>
       </c>
       <c r="D82">
-        <v>-0.657486777548145</v>
+        <v>-1.566666536542486</v>
       </c>
       <c r="E82">
-        <v>0.5109056880566949</v>
+        <v>0.1173606808904464</v>
       </c>
     </row>
     <row r="83">
@@ -1930,16 +1930,16 @@
         </is>
       </c>
       <c r="B83">
-        <v>-15.2197737488935</v>
+        <v>-30.42709255487261</v>
       </c>
       <c r="C83">
-        <v>33.75904230517933</v>
+        <v>28.32046230008819</v>
       </c>
       <c r="D83">
-        <v>-0.4508354713178126</v>
+        <v>-1.074385447259378</v>
       </c>
       <c r="E83">
-        <v>0.6521324976464606</v>
+        <v>0.2827876142773337</v>
       </c>
     </row>
     <row r="84">
@@ -1949,16 +1949,16 @@
         </is>
       </c>
       <c r="B84">
-        <v>25.64658557616919</v>
+        <v>51.33010049391196</v>
       </c>
       <c r="C84">
-        <v>33.88394269780888</v>
+        <v>28.42524124579167</v>
       </c>
       <c r="D84">
-        <v>0.7568949636379725</v>
+        <v>1.805792958802463</v>
       </c>
       <c r="E84">
-        <v>0.4491572386381931</v>
+        <v>0.07111032070854015</v>
       </c>
     </row>
     <row r="85">
@@ -1968,16 +1968,16 @@
         </is>
       </c>
       <c r="B85">
-        <v>-22.90732331310763</v>
+        <v>-45.81998941652788</v>
       </c>
       <c r="C85">
-        <v>33.88394269780615</v>
+        <v>28.42524124579212</v>
       </c>
       <c r="D85">
-        <v>-0.6760524746900479</v>
+        <v>-1.611947248585296</v>
       </c>
       <c r="E85">
-        <v>0.4990462970516426</v>
+        <v>0.1071410018272403</v>
       </c>
     </row>
     <row r="86">
@@ -1987,16 +1987,16 @@
         </is>
       </c>
       <c r="B86">
-        <v>-21.80582001232229</v>
+        <v>-43.5702549213032</v>
       </c>
       <c r="C86">
-        <v>33.75904230518373</v>
+        <v>28.32046230008839</v>
       </c>
       <c r="D86">
-        <v>-0.6459253143260519</v>
+        <v>-1.538472587757411</v>
       </c>
       <c r="E86">
-        <v>0.5183646666641626</v>
+        <v>0.12410111916731</v>
       </c>
     </row>
     <row r="87">
@@ -2006,16 +2006,16 @@
         </is>
       </c>
       <c r="B87">
-        <v>-25.4715531287295</v>
+        <v>-50.93149229008655</v>
       </c>
       <c r="C87">
-        <v>33.8839426978086</v>
+        <v>28.42524124579221</v>
       </c>
       <c r="D87">
-        <v>-0.7517293178038823</v>
+        <v>-1.79176992200993</v>
       </c>
       <c r="E87">
-        <v>0.4522579509215905</v>
+        <v>0.07333034523894882</v>
       </c>
     </row>
     <row r="88">
@@ -2025,16 +2025,16 @@
         </is>
       </c>
       <c r="B88">
-        <v>38.43074866303725</v>
+        <v>76.88509653273495</v>
       </c>
       <c r="C88">
-        <v>33.88394269780738</v>
+        <v>28.4252412457928</v>
       </c>
       <c r="D88">
-        <v>1.134187629986876</v>
+        <v>2.704817731111241</v>
       </c>
       <c r="E88">
-        <v>0.2567836142512857</v>
+        <v>0.00689574844604808</v>
       </c>
     </row>
     <row r="89">
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="B89">
-        <v>-4.679817600467441</v>
+        <v>-9.347055736858104</v>
       </c>
       <c r="C89">
-        <v>33.88394269780448</v>
+        <v>28.42524124579359</v>
       </c>
       <c r="D89">
-        <v>-0.1381131364258467</v>
+        <v>-0.3288294250885662</v>
       </c>
       <c r="E89">
-        <v>0.8901579350457327</v>
+        <v>0.7423211869230162</v>
       </c>
     </row>
     <row r="90">
@@ -2063,16 +2063,16 @@
         </is>
       </c>
       <c r="B90">
-        <v>0.4372973953531339</v>
+        <v>0.9085909395619098</v>
       </c>
       <c r="C90">
-        <v>33.88394269781366</v>
+        <v>28.42524124579144</v>
       </c>
       <c r="D90">
-        <v>0.01290574120175661</v>
+        <v>0.03196422966846177</v>
       </c>
       <c r="E90">
-        <v>0.9897036358810998</v>
+        <v>0.9745039644593136</v>
       </c>
     </row>
     <row r="91">
@@ -2082,16 +2082,16 @@
         </is>
       </c>
       <c r="B91">
-        <v>2.683114144971135</v>
+        <v>5.415321554626996</v>
       </c>
       <c r="C91">
-        <v>33.8839426978107</v>
+        <v>28.42524124579308</v>
       </c>
       <c r="D91">
-        <v>0.07918541737896681</v>
+        <v>0.190511014763277</v>
       </c>
       <c r="E91">
-        <v>0.9368890925661377</v>
+        <v>0.8489292490141349</v>
       </c>
     </row>
     <row r="92">
@@ -2101,16 +2101,16 @@
         </is>
       </c>
       <c r="B92">
-        <v>-1.539958816624198</v>
+        <v>-3.068608756711265</v>
       </c>
       <c r="C92">
-        <v>33.88394269780613</v>
+        <v>28.42524124579083</v>
       </c>
       <c r="D92">
-        <v>-0.04544804098974897</v>
+        <v>-0.1079536574615936</v>
       </c>
       <c r="E92">
-        <v>0.9637524512235566</v>
+        <v>0.9140439543825296</v>
       </c>
     </row>
     <row r="93">
@@ -2120,16 +2120,16 @@
         </is>
       </c>
       <c r="B93">
-        <v>42.57672974564672</v>
+        <v>85.18241908128009</v>
       </c>
       <c r="C93">
-        <v>33.8839426978104</v>
+        <v>28.4252412457924</v>
       </c>
       <c r="D93">
-        <v>1.256545913955818</v>
+        <v>2.99671754215592</v>
       </c>
       <c r="E93">
-        <v>0.2089912660236445</v>
+        <v>0.002764701599611479</v>
       </c>
     </row>
     <row r="94">
@@ -2139,16 +2139,16 @@
         </is>
       </c>
       <c r="B94">
-        <v>-11.28999481125618</v>
+        <v>-22.55644131491035</v>
       </c>
       <c r="C94">
-        <v>33.8839426978155</v>
+        <v>28.42524124579354</v>
       </c>
       <c r="D94">
-        <v>-0.333196018891392</v>
+        <v>-0.7935356157530702</v>
       </c>
       <c r="E94">
-        <v>0.7390037338525446</v>
+        <v>0.427565808389576</v>
       </c>
     </row>
     <row r="95">
@@ -2158,16 +2158,16 @@
         </is>
       </c>
       <c r="B95">
-        <v>189.5002512701099</v>
+        <v>379.0493392472338</v>
       </c>
       <c r="C95">
-        <v>34.89367499730859</v>
+        <v>29.2723057229976</v>
       </c>
       <c r="D95">
-        <v>5.430790860656736</v>
+        <v>12.94907694782089</v>
       </c>
       <c r="E95">
-        <v>5.942859378928795E-08</v>
+        <v>8.425682660051348E-37</v>
       </c>
     </row>
     <row r="96">
@@ -2177,16 +2177,16 @@
         </is>
       </c>
       <c r="B96">
-        <v>8.587578112177559</v>
+        <v>17.2138414525331</v>
       </c>
       <c r="C96">
-        <v>34.89367499730741</v>
+        <v>29.27230572299645</v>
       </c>
       <c r="D96">
-        <v>0.246107012598708</v>
+        <v>0.5880589529033866</v>
       </c>
       <c r="E96">
-        <v>0.8056119844387153</v>
+        <v>0.556563242018463</v>
       </c>
     </row>
     <row r="97">
@@ -2196,16 +2196,16 @@
         </is>
       </c>
       <c r="B97">
-        <v>-6.850417274342164</v>
+        <v>-13.6757196430595</v>
       </c>
       <c r="C97">
-        <v>33.76686211471851</v>
+        <v>28.327022338708</v>
       </c>
       <c r="D97">
-        <v>-0.2028739671180806</v>
+        <v>-0.482779992882346</v>
       </c>
       <c r="E97">
-        <v>0.8392438299027329</v>
+        <v>0.6293080786371738</v>
       </c>
     </row>
     <row r="98">
@@ -2215,16 +2215,16 @@
         </is>
       </c>
       <c r="B98">
-        <v>-13.39062305266451</v>
+        <v>-26.7463058327858</v>
       </c>
       <c r="C98">
-        <v>33.88394269780558</v>
+        <v>28.42524124579367</v>
       </c>
       <c r="D98">
-        <v>-0.3951908186154418</v>
+        <v>-0.9409350514041348</v>
       </c>
       <c r="E98">
-        <v>0.6927230778441009</v>
+        <v>0.3468588348039729</v>
       </c>
     </row>
     <row r="99">
@@ -2234,16 +2234,16 @@
         </is>
       </c>
       <c r="B99">
-        <v>-8.634730474228661</v>
+        <v>-17.24908855348237</v>
       </c>
       <c r="C99">
-        <v>33.88394269780794</v>
+        <v>28.42524124579149</v>
       </c>
       <c r="D99">
-        <v>-0.2548325190854271</v>
+        <v>-0.6068229431838575</v>
       </c>
       <c r="E99">
-        <v>0.7988655188448847</v>
+        <v>0.5440415766526091</v>
       </c>
     </row>
     <row r="100">
@@ -2253,16 +2253,16 @@
         </is>
       </c>
       <c r="B100">
-        <v>-10.63821882881479</v>
+        <v>-21.23825203228214</v>
       </c>
       <c r="C100">
-        <v>33.88394269781024</v>
+        <v>28.42524124579362</v>
       </c>
       <c r="D100">
-        <v>-0.3139604774949135</v>
+        <v>-0.7471617161886002</v>
       </c>
       <c r="E100">
-        <v>0.7535673795855554</v>
+        <v>0.4550592354646812</v>
       </c>
     </row>
     <row r="101">
@@ -2272,16 +2272,16 @@
         </is>
       </c>
       <c r="B101">
-        <v>-10.24006064622937</v>
+        <v>-20.44840953887698</v>
       </c>
       <c r="C101">
-        <v>33.75904230517827</v>
+        <v>28.32046230008783</v>
       </c>
       <c r="D101">
-        <v>-0.3033279366653912</v>
+        <v>-0.7220365727862275</v>
       </c>
       <c r="E101">
-        <v>0.7616556857116805</v>
+        <v>0.470361644873023</v>
       </c>
     </row>
     <row r="102">
@@ -2291,16 +2291,16 @@
         </is>
       </c>
       <c r="B102">
-        <v>155.1975713566245</v>
+        <v>310.4102948353002</v>
       </c>
       <c r="C102">
-        <v>33.76686211471964</v>
+        <v>28.32702233870688</v>
       </c>
       <c r="D102">
-        <v>4.596150238341831</v>
+        <v>10.95809828240035</v>
       </c>
       <c r="E102">
-        <v>4.436040622799932E-06</v>
+        <v>3.932593232180174E-27</v>
       </c>
     </row>
     <row r="103">
@@ -2310,16 +2310,16 @@
         </is>
       </c>
       <c r="B103">
-        <v>13.21725213318663</v>
+        <v>26.43617432328726</v>
       </c>
       <c r="C103">
-        <v>33.76686211471476</v>
+        <v>28.32702233870537</v>
       </c>
       <c r="D103">
-        <v>0.3914267215083299</v>
+        <v>0.9332493195786942</v>
       </c>
       <c r="E103">
-        <v>0.6955026309848529</v>
+        <v>0.350810904946519</v>
       </c>
     </row>
     <row r="104">
@@ -2329,16 +2329,16 @@
         </is>
       </c>
       <c r="B104">
-        <v>10.97450397057916</v>
+        <v>21.96115678670052</v>
       </c>
       <c r="C104">
-        <v>33.76686211471655</v>
+        <v>28.32702233870649</v>
       </c>
       <c r="D104">
-        <v>0.3250081080467397</v>
+        <v>0.7752723362205441</v>
       </c>
       <c r="E104">
-        <v>0.7451918813676601</v>
+        <v>0.4382760999201102</v>
       </c>
     </row>
     <row r="105">
@@ -2348,16 +2348,16 @@
         </is>
       </c>
       <c r="B105">
-        <v>-12.83826742936436</v>
+        <v>-25.69869036409385</v>
       </c>
       <c r="C105">
-        <v>33.76686211472136</v>
+        <v>28.32702233870696</v>
       </c>
       <c r="D105">
-        <v>-0.380203152598158</v>
+        <v>-0.9072146749776213</v>
       </c>
       <c r="E105">
-        <v>0.7038147456421127</v>
+        <v>0.3644093659209535</v>
       </c>
     </row>
     <row r="106">
@@ -2367,16 +2367,16 @@
         </is>
       </c>
       <c r="B106">
-        <v>-12.51082893583251</v>
+        <v>-24.99585139839736</v>
       </c>
       <c r="C106">
-        <v>33.76686211471783</v>
+        <v>28.32702233870603</v>
       </c>
       <c r="D106">
-        <v>-0.3705061161244078</v>
+        <v>-0.8824030672734366</v>
       </c>
       <c r="E106">
-        <v>0.7110249797189938</v>
+        <v>0.377671507230227</v>
       </c>
     </row>
     <row r="107">
@@ -2386,16 +2386,16 @@
         </is>
       </c>
       <c r="B107">
-        <v>-3.240843813607612</v>
+        <v>-6.475434690183255</v>
       </c>
       <c r="C107">
-        <v>33.76686211472366</v>
+        <v>28.32702233870786</v>
       </c>
       <c r="D107">
-        <v>-0.09597705000235952</v>
+        <v>-0.2285956713965946</v>
       </c>
       <c r="E107">
-        <v>0.9235435933712316</v>
+        <v>0.8192080115161883</v>
       </c>
     </row>
     <row r="108">
@@ -2405,16 +2405,16 @@
         </is>
       </c>
       <c r="B108">
-        <v>-1.745932165324071</v>
+        <v>-3.489869858898575</v>
       </c>
       <c r="C108">
-        <v>33.8839426978124</v>
+        <v>28.42524124579277</v>
       </c>
       <c r="D108">
-        <v>-0.05152683030115003</v>
+        <v>-0.1227736232287954</v>
       </c>
       <c r="E108">
-        <v>0.9589082879122961</v>
+        <v>0.9022994635974223</v>
       </c>
     </row>
     <row r="109">
@@ -2424,16 +2424,16 @@
         </is>
       </c>
       <c r="B109">
-        <v>-8.309870081503538</v>
+        <v>-16.61379798799378</v>
       </c>
       <c r="C109">
-        <v>33.76686211472347</v>
+        <v>28.32702233870457</v>
       </c>
       <c r="D109">
-        <v>-0.2460954190315529</v>
+        <v>-0.586499978336712</v>
       </c>
       <c r="E109">
-        <v>0.8056209582142941</v>
+        <v>0.5576098764602466</v>
       </c>
     </row>
     <row r="110">
@@ -2443,16 +2443,16 @@
         </is>
       </c>
       <c r="B110">
-        <v>-5.955048420384354</v>
+        <v>-11.89385214764824</v>
       </c>
       <c r="C110">
-        <v>33.8839426978087</v>
+        <v>28.42524124579258</v>
       </c>
       <c r="D110">
-        <v>-0.1757483913101255</v>
+        <v>-0.4184257239825092</v>
       </c>
       <c r="E110">
-        <v>0.8605004857103645</v>
+        <v>0.6756835980476937</v>
       </c>
     </row>
     <row r="111">
@@ -2462,16 +2462,16 @@
         </is>
       </c>
       <c r="B111">
-        <v>-8.546243704648008</v>
+        <v>-17.08589880623344</v>
       </c>
       <c r="C111">
-        <v>33.76686211472247</v>
+        <v>28.32702233870738</v>
       </c>
       <c r="D111">
-        <v>-0.2530955845293607</v>
+        <v>-0.6031660723791099</v>
       </c>
       <c r="E111">
-        <v>0.8002073180157006</v>
+        <v>0.5464708562809335</v>
       </c>
     </row>
     <row r="112">
@@ -2481,16 +2481,16 @@
         </is>
       </c>
       <c r="B112">
-        <v>-20.00423169246487</v>
+        <v>-39.97862461998011</v>
       </c>
       <c r="C112">
-        <v>33.76686211471954</v>
+        <v>28.32702233870698</v>
       </c>
       <c r="D112">
-        <v>-0.5924219912558795</v>
+        <v>-1.411324640548329</v>
       </c>
       <c r="E112">
-        <v>0.5536014298635388</v>
+        <v>0.1583141151854822</v>
       </c>
     </row>
     <row r="113">
@@ -2500,16 +2500,16 @@
         </is>
       </c>
       <c r="B113">
-        <v>85.79137810668161</v>
+        <v>171.5840614915371</v>
       </c>
       <c r="C113">
-        <v>33.75904230518212</v>
+        <v>28.32046230008816</v>
       </c>
       <c r="D113">
-        <v>2.541285897008765</v>
+        <v>6.058660330943927</v>
       </c>
       <c r="E113">
-        <v>0.01108189264244397</v>
+        <v>1.653431861534401E-09</v>
       </c>
     </row>
     <row r="114">
@@ -2519,16 +2519,16 @@
         </is>
       </c>
       <c r="B114">
-        <v>-2.874101766505354</v>
+        <v>-5.744829930574069</v>
       </c>
       <c r="C114">
-        <v>33.75904230517391</v>
+        <v>28.32046230008877</v>
       </c>
       <c r="D114">
-        <v>-0.0851357612732062</v>
+        <v>-0.202850852846285</v>
       </c>
       <c r="E114">
-        <v>0.9321577080736716</v>
+        <v>0.8392735249398194</v>
       </c>
     </row>
     <row r="115">
@@ -2538,16 +2538,16 @@
         </is>
       </c>
       <c r="B115">
-        <v>-4.735421950274652</v>
+        <v>-9.474416299369731</v>
       </c>
       <c r="C115">
-        <v>33.76686211471613</v>
+        <v>28.32702233870623</v>
       </c>
       <c r="D115">
-        <v>-0.1402387327015169</v>
+        <v>-0.3344656627189448</v>
       </c>
       <c r="E115">
-        <v>0.8884784098162503</v>
+        <v>0.7380654462740899</v>
       </c>
     </row>
     <row r="116">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="B116">
-        <v>87.66173807213787</v>
+        <v>175.3569117134691</v>
       </c>
       <c r="C116">
-        <v>33.76686211472006</v>
+        <v>28.32702233870681</v>
       </c>
       <c r="D116">
-        <v>2.596087779027691</v>
+        <v>6.190446338366342</v>
       </c>
       <c r="E116">
-        <v>0.009463583806481358</v>
+        <v>7.344807152575823E-10</v>
       </c>
     </row>
     <row r="117">
@@ -2576,16 +2576,16 @@
         </is>
       </c>
       <c r="B117">
-        <v>-21.69993703378328</v>
+        <v>-43.48070312500636</v>
       </c>
       <c r="C117">
-        <v>33.88394269781279</v>
+        <v>28.42524124579336</v>
       </c>
       <c r="D117">
-        <v>-0.6404194820924427</v>
+        <v>-1.529651155781872</v>
       </c>
       <c r="E117">
-        <v>0.5219364938246294</v>
+        <v>0.1262710640051408</v>
       </c>
     </row>
     <row r="118">
@@ -2595,16 +2595,16 @@
         </is>
       </c>
       <c r="B118">
-        <v>-18.36528394058979</v>
+        <v>-36.70713465108719</v>
       </c>
       <c r="C118">
-        <v>33.76686211472152</v>
+        <v>28.32702233870582</v>
       </c>
       <c r="D118">
-        <v>-0.54388482643707</v>
+        <v>-1.295834564331559</v>
       </c>
       <c r="E118">
-        <v>0.5865509526322612</v>
+        <v>0.1951913018382836</v>
       </c>
     </row>
     <row r="119">
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B119">
-        <v>-14.35941783637805</v>
+        <v>-28.69408783308077</v>
       </c>
       <c r="C119">
-        <v>33.75904230518224</v>
+        <v>28.32046230008675</v>
       </c>
       <c r="D119">
-        <v>-0.4253502722787186</v>
+        <v>-1.013192776623314</v>
       </c>
       <c r="E119">
-        <v>0.670604164079214</v>
+        <v>0.3110982593259208</v>
       </c>
     </row>
     <row r="120">
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B120">
-        <v>-21.10657825710127</v>
+        <v>-42.19174274624866</v>
       </c>
       <c r="C120">
-        <v>33.75904230517654</v>
+        <v>28.32046230008806</v>
       </c>
       <c r="D120">
-        <v>-0.6252125894538433</v>
+        <v>-1.489797104975842</v>
       </c>
       <c r="E120">
-        <v>0.5318670984705653</v>
+        <v>0.1364450638263396</v>
       </c>
     </row>
     <row r="121">
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="B121">
-        <v>-6.931082532975303</v>
+        <v>-13.8461057005355</v>
       </c>
       <c r="C121">
-        <v>33.75904230517823</v>
+        <v>28.32046230008702</v>
       </c>
       <c r="D121">
-        <v>-0.2053104015901588</v>
+        <v>-0.488908180728849</v>
       </c>
       <c r="E121">
-        <v>0.8373400337023668</v>
+        <v>0.6249636412923155</v>
       </c>
     </row>
     <row r="122">
@@ -2671,16 +2671,16 @@
         </is>
       </c>
       <c r="B122">
-        <v>-18.88328489075249</v>
+        <v>-37.75489351325889</v>
       </c>
       <c r="C122">
-        <v>33.76686211472163</v>
+        <v>28.32702233870783</v>
       </c>
       <c r="D122">
-        <v>-0.5592253383390275</v>
+        <v>-1.332822527614144</v>
       </c>
       <c r="E122">
-        <v>0.5760391569073113</v>
+        <v>0.1827512950234989</v>
       </c>
     </row>
     <row r="123">
@@ -2690,16 +2690,16 @@
         </is>
       </c>
       <c r="B123">
-        <v>-12.66786581515782</v>
+        <v>-25.31434545022994</v>
       </c>
       <c r="C123">
-        <v>33.76686211471946</v>
+        <v>28.32702233870557</v>
       </c>
       <c r="D123">
-        <v>-0.3751567371620153</v>
+        <v>-0.8936465381905262</v>
       </c>
       <c r="E123">
-        <v>0.7075637339609113</v>
+        <v>0.3716252373587451</v>
       </c>
     </row>
     <row r="124">
@@ -2709,16 +2709,16 @@
         </is>
       </c>
       <c r="B124">
-        <v>12.86034462583865</v>
+        <v>25.76027522239055</v>
       </c>
       <c r="C124">
-        <v>33.76686211472204</v>
+        <v>28.32702233870717</v>
       </c>
       <c r="D124">
-        <v>0.3808569650963114</v>
+        <v>0.9093887424655532</v>
       </c>
       <c r="E124">
-        <v>0.7033295517313115</v>
+        <v>0.3632613433018332</v>
       </c>
     </row>
     <row r="125">
@@ -2728,16 +2728,16 @@
         </is>
       </c>
       <c r="B125">
-        <v>-17.53585279968256</v>
+        <v>-35.05519577900206</v>
       </c>
       <c r="C125">
-        <v>33.7668621147183</v>
+        <v>28.32702233870561</v>
       </c>
       <c r="D125">
-        <v>-0.5193213612833462</v>
+        <v>-1.237517849911925</v>
       </c>
       <c r="E125">
-        <v>0.60356530621858</v>
+        <v>0.2160491819682602</v>
       </c>
     </row>
     <row r="126">
@@ -2747,16 +2747,16 @@
         </is>
       </c>
       <c r="B126">
-        <v>104.141215662509</v>
+        <v>208.3134284798621</v>
       </c>
       <c r="C126">
-        <v>33.88394269781335</v>
+        <v>28.42524124579201</v>
       </c>
       <c r="D126">
-        <v>3.073468061000752</v>
+        <v>7.328466508994017</v>
       </c>
       <c r="E126">
-        <v>0.002130076445613575</v>
+        <v>3.437625094196863E-13</v>
       </c>
     </row>
     <row r="127">
@@ -2766,16 +2766,16 @@
         </is>
       </c>
       <c r="B127">
-        <v>-19.73233183221237</v>
+        <v>-39.44942682564233</v>
       </c>
       <c r="C127">
-        <v>33.76686211471734</v>
+        <v>28.32702233870583</v>
       </c>
       <c r="D127">
-        <v>-0.5843697221605912</v>
+        <v>-1.392642910149399</v>
       </c>
       <c r="E127">
-        <v>0.5590044494324327</v>
+        <v>0.1638922121166443</v>
       </c>
     </row>
     <row r="128">
@@ -2785,16 +2785,16 @@
         </is>
       </c>
       <c r="B128">
-        <v>-14.15390651836373</v>
+        <v>-28.28014018382919</v>
       </c>
       <c r="C128">
-        <v>33.76686211471917</v>
+        <v>28.32702233870517</v>
       </c>
       <c r="D128">
-        <v>-0.4191655851905159</v>
+        <v>-0.9983449670665905</v>
       </c>
       <c r="E128">
-        <v>0.6751175621321943</v>
+        <v>0.3182403825961683</v>
       </c>
     </row>
     <row r="129">
@@ -2804,16 +2804,16 @@
         </is>
       </c>
       <c r="B129">
-        <v>-23.91312004995343</v>
+        <v>-47.87030438595934</v>
       </c>
       <c r="C129">
-        <v>33.76686211472144</v>
+        <v>28.32702233870694</v>
       </c>
       <c r="D129">
-        <v>-0.7081830692087895</v>
+        <v>-1.689916568482662</v>
       </c>
       <c r="E129">
-        <v>0.4788727194712548</v>
+        <v>0.0912094437529954</v>
       </c>
     </row>
     <row r="130">
@@ -2823,16 +2823,16 @@
         </is>
       </c>
       <c r="B130">
-        <v>-17.06873381260744</v>
+        <v>-34.13628100718625</v>
       </c>
       <c r="C130">
-        <v>33.76686211471768</v>
+        <v>28.32702233870514</v>
       </c>
       <c r="D130">
-        <v>-0.5054877102473739</v>
+        <v>-1.205078338239015</v>
       </c>
       <c r="E130">
-        <v>0.6132440965723267</v>
+        <v>0.228324486137666</v>
       </c>
     </row>
     <row r="131">
@@ -2842,16 +2842,16 @@
         </is>
       </c>
       <c r="B131">
-        <v>-22.82823916130385</v>
+        <v>-45.72027841119363</v>
       </c>
       <c r="C131">
-        <v>33.7590423051774</v>
+        <v>28.32046230008718</v>
       </c>
       <c r="D131">
-        <v>-0.6762111008641626</v>
+        <v>-1.614390257006959</v>
       </c>
       <c r="E131">
-        <v>0.4989456041188912</v>
+        <v>0.1066103464336991</v>
       </c>
     </row>
     <row r="132">
@@ -2861,16 +2861,16 @@
         </is>
       </c>
       <c r="B132">
-        <v>-20.79156825814585</v>
+        <v>-41.57530502388458</v>
       </c>
       <c r="C132">
-        <v>33.76686211472127</v>
+        <v>28.32702233870651</v>
       </c>
       <c r="D132">
-        <v>-0.6157388325722274</v>
+        <v>-1.467690621582749</v>
       </c>
       <c r="E132">
-        <v>0.5381018316315875</v>
+        <v>0.1423552853637912</v>
       </c>
     </row>
     <row r="133">
@@ -2880,16 +2880,16 @@
         </is>
       </c>
       <c r="B133">
-        <v>-10.71194529843477</v>
+        <v>-21.40323074062324</v>
       </c>
       <c r="C133">
-        <v>33.75904230517863</v>
+        <v>28.32046230008664</v>
       </c>
       <c r="D133">
-        <v>-0.3173059591442131</v>
+        <v>-0.7557514603339563</v>
       </c>
       <c r="E133">
-        <v>0.7510279674109128</v>
+        <v>0.449892751367353</v>
       </c>
     </row>
     <row r="134">
@@ -2899,16 +2899,16 @@
         </is>
       </c>
       <c r="B134">
-        <v>-8.706245923420497</v>
+        <v>-17.40997850703829</v>
       </c>
       <c r="C134">
-        <v>33.76686211471913</v>
+        <v>28.3270223387072</v>
       </c>
       <c r="D134">
-        <v>-0.2578340236010678</v>
+        <v>-0.614606727769215</v>
       </c>
       <c r="E134">
-        <v>0.7965482289386376</v>
+        <v>0.5388887259125765</v>
       </c>
     </row>
     <row r="135">
@@ -2918,16 +2918,16 @@
         </is>
       </c>
       <c r="B135">
-        <v>15.89711161613546</v>
+        <v>31.82333344482223</v>
       </c>
       <c r="C135">
-        <v>33.88394269781146</v>
+        <v>28.42524124579248</v>
       </c>
       <c r="D135">
-        <v>0.4691635727846467</v>
+        <v>1.119544885112725</v>
       </c>
       <c r="E135">
-        <v>0.6389782144990275</v>
+        <v>0.263050536375004</v>
       </c>
     </row>
     <row r="136">
@@ -2937,16 +2937,16 @@
         </is>
       </c>
       <c r="B136">
-        <v>275.1255908306969</v>
+        <v>550.2867644738994</v>
       </c>
       <c r="C136">
-        <v>33.76686211471674</v>
+        <v>28.32702233870775</v>
       </c>
       <c r="D136">
-        <v>8.147798569378699</v>
+        <v>19.42621281877391</v>
       </c>
       <c r="E136">
-        <v>4.902573852189577E-16</v>
+        <v>9.165602432145234E-77</v>
       </c>
     </row>
     <row r="137">
@@ -2956,16 +2956,16 @@
         </is>
       </c>
       <c r="B137">
-        <v>590.2742809324062</v>
+        <v>1180.588625575795</v>
       </c>
       <c r="C137">
-        <v>33.76686211472084</v>
+        <v>28.32702233870777</v>
       </c>
       <c r="D137">
-        <v>17.48087456059688</v>
+        <v>41.67711704602876</v>
       </c>
       <c r="E137">
-        <v>5.290162274870302E-66</v>
+        <v>1.489855113024667E-269</v>
       </c>
     </row>
     <row r="138">
@@ -2975,16 +2975,16 @@
         </is>
       </c>
       <c r="B138">
-        <v>274.919569053606</v>
+        <v>549.8748338119317</v>
       </c>
       <c r="C138">
-        <v>33.76686211472054</v>
+        <v>28.32702233870615</v>
       </c>
       <c r="D138">
-        <v>8.141697268747867</v>
+        <v>19.41167085043671</v>
       </c>
       <c r="E138">
-        <v>5.151878899108131E-16</v>
+        <v>1.160400997365543E-76</v>
       </c>
     </row>
     <row r="139">
@@ -2994,16 +2994,16 @@
         </is>
       </c>
       <c r="B139">
-        <v>-13.66544974925547</v>
+        <v>-27.30788181664174</v>
       </c>
       <c r="C139">
-        <v>33.7668621147197</v>
+        <v>28.32702233870742</v>
       </c>
       <c r="D139">
-        <v>-0.4047000192919439</v>
+        <v>-0.964022320811564</v>
       </c>
       <c r="E139">
-        <v>0.6857196026504284</v>
+        <v>0.3351585196827472</v>
       </c>
     </row>
     <row r="140">
@@ -3013,16 +3013,16 @@
         </is>
       </c>
       <c r="B140">
-        <v>5.126599096259695</v>
+        <v>10.26249662472105</v>
       </c>
       <c r="C140">
-        <v>33.76686211472048</v>
+        <v>28.32702233870669</v>
       </c>
       <c r="D140">
-        <v>0.1518233787564401</v>
+        <v>0.362286459268899</v>
       </c>
       <c r="E140">
-        <v>0.8793338760155627</v>
+        <v>0.7171786302849587</v>
       </c>
     </row>
     <row r="141">
@@ -3032,16 +3032,16 @@
         </is>
       </c>
       <c r="B141">
-        <v>-3.102779104542166</v>
+        <v>-6.184195816814258</v>
       </c>
       <c r="C141">
-        <v>33.76686211471623</v>
+        <v>28.32702233870588</v>
       </c>
       <c r="D141">
-        <v>-0.09188828662850247</v>
+        <v>-0.2183143622675867</v>
       </c>
       <c r="E141">
-        <v>0.9267913855847862</v>
+        <v>0.8272078415334883</v>
       </c>
     </row>
     <row r="142">
@@ -3051,16 +3051,16 @@
         </is>
       </c>
       <c r="B142">
-        <v>-7.307538345506172</v>
+        <v>-14.58302015166591</v>
       </c>
       <c r="C142">
-        <v>33.88394269780893</v>
+        <v>28.42524124579291</v>
       </c>
       <c r="D142">
-        <v>-0.2156637558585739</v>
+        <v>-0.5130306555911562</v>
       </c>
       <c r="E142">
-        <v>0.8292608179154671</v>
+        <v>0.6079900575065675</v>
       </c>
     </row>
     <row r="143">
@@ -3070,16 +3070,16 @@
         </is>
       </c>
       <c r="B143">
-        <v>16.60859106947253</v>
+        <v>33.25692197299123</v>
       </c>
       <c r="C143">
-        <v>33.88394269780889</v>
+        <v>28.42524124579172</v>
       </c>
       <c r="D143">
-        <v>0.4901611131146944</v>
+        <v>1.169978530188018</v>
       </c>
       <c r="E143">
-        <v>0.6240466986263857</v>
+        <v>0.2421576701870674</v>
       </c>
     </row>
     <row r="144">
@@ -3089,16 +3089,16 @@
         </is>
       </c>
       <c r="B144">
-        <v>2.854504308452989</v>
+        <v>5.746001745242373</v>
       </c>
       <c r="C144">
-        <v>33.8839426978067</v>
+        <v>28.42524124579183</v>
       </c>
       <c r="D144">
-        <v>0.08424357029259644</v>
+        <v>0.202144344020054</v>
       </c>
       <c r="E144">
-        <v>0.9328669803308214</v>
+        <v>0.839825718287162</v>
       </c>
     </row>
     <row r="145">
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B145">
-        <v>-13.87438109132822</v>
+        <v>-27.71448484129886</v>
       </c>
       <c r="C145">
-        <v>33.88394269780686</v>
+        <v>28.425241245793</v>
       </c>
       <c r="D145">
-        <v>-0.4094677297464041</v>
+        <v>-0.9749955893655139</v>
       </c>
       <c r="E145">
-        <v>0.6822183032262628</v>
+        <v>0.3296876822717565</v>
       </c>
     </row>
     <row r="146">
@@ -3127,16 +3127,16 @@
         </is>
       </c>
       <c r="B146">
-        <v>-20.92930737602974</v>
+        <v>-41.83902858935198</v>
       </c>
       <c r="C146">
-        <v>33.7668621147213</v>
+        <v>28.32702233870856</v>
       </c>
       <c r="D146">
-        <v>-0.6198179536174673</v>
+        <v>-1.477000585839176</v>
       </c>
       <c r="E146">
-        <v>0.5354128464036311</v>
+        <v>0.1398426988392553</v>
       </c>
     </row>
     <row r="147">
@@ -3146,16 +3146,16 @@
         </is>
       </c>
       <c r="B147">
-        <v>-21.17204704998494</v>
+        <v>-42.32960335200608</v>
       </c>
       <c r="C147">
-        <v>33.88394269780616</v>
+        <v>28.42524124579315</v>
       </c>
       <c r="D147">
-        <v>-0.6248401267469899</v>
+        <v>-1.489155465242383</v>
       </c>
       <c r="E147">
-        <v>0.5321115250802537</v>
+        <v>0.1366138946697775</v>
       </c>
     </row>
     <row r="148">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="B148">
-        <v>-17.5553871268862</v>
+        <v>-35.09642510654794</v>
       </c>
       <c r="C148">
-        <v>33.76686211471823</v>
+        <v>28.32702233870639</v>
       </c>
       <c r="D148">
-        <v>-0.5198998671313968</v>
+        <v>-1.238973326843173</v>
       </c>
       <c r="E148">
-        <v>0.603162051556007</v>
+        <v>0.2155097893337942</v>
       </c>
     </row>
     <row r="149">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B149">
-        <v>-22.84359155322688</v>
+        <v>-45.71670046951091</v>
       </c>
       <c r="C149">
-        <v>33.76686211471596</v>
+        <v>28.32702233870725</v>
       </c>
       <c r="D149">
-        <v>-0.676509160834089</v>
+        <v>-1.61389008427623</v>
       </c>
       <c r="E149">
-        <v>0.4987564304346268</v>
+        <v>0.1067188208374424</v>
       </c>
     </row>
     <row r="150">
@@ -3203,16 +3203,16 @@
         </is>
       </c>
       <c r="B150">
-        <v>-20.34755711132556</v>
+        <v>-40.68011343783578</v>
       </c>
       <c r="C150">
-        <v>33.76686211471952</v>
+        <v>28.32702233870732</v>
       </c>
       <c r="D150">
-        <v>-0.602589516378418</v>
+        <v>-1.43608858535931</v>
       </c>
       <c r="E150">
-        <v>0.5468158531862206</v>
+        <v>0.1511432395096031</v>
       </c>
     </row>
     <row r="151">
@@ -3222,16 +3222,16 @@
         </is>
       </c>
       <c r="B151">
-        <v>-21.65121538858717</v>
+        <v>-43.29516365501004</v>
       </c>
       <c r="C151">
-        <v>33.75904230518021</v>
+        <v>28.32046230008617</v>
       </c>
       <c r="D151">
-        <v>-0.641345663566554</v>
+        <v>-1.528759071665236</v>
       </c>
       <c r="E151">
-        <v>0.5213347627682359</v>
+        <v>0.1264921401266849</v>
       </c>
     </row>
     <row r="152">
@@ -3241,16 +3241,16 @@
         </is>
       </c>
       <c r="B152">
-        <v>-5.566224620624223</v>
+        <v>-11.11491942387592</v>
       </c>
       <c r="C152">
-        <v>33.7590423051757</v>
+        <v>28.32046230008812</v>
       </c>
       <c r="D152">
-        <v>-0.1648809990018837</v>
+        <v>-0.3924695616229871</v>
       </c>
       <c r="E152">
-        <v>0.8690459548659527</v>
+        <v>0.6947557167646308</v>
       </c>
     </row>
     <row r="153">
@@ -3260,16 +3260,16 @@
         </is>
       </c>
       <c r="B153">
-        <v>-20.00542121709917</v>
+        <v>-39.98761209479787</v>
       </c>
       <c r="C153">
-        <v>33.76686211471806</v>
+        <v>28.32702233870782</v>
       </c>
       <c r="D153">
-        <v>-0.5924572188299174</v>
+        <v>-1.41164191621215</v>
       </c>
       <c r="E153">
-        <v>0.5535778487278608</v>
+        <v>0.158220639418353</v>
       </c>
     </row>
     <row r="154">
@@ -3279,16 +3279,16 @@
         </is>
       </c>
       <c r="B154">
-        <v>-20.24168748643425</v>
+        <v>-40.47129773971761</v>
       </c>
       <c r="C154">
-        <v>33.76686211471727</v>
+        <v>28.3270223387068</v>
       </c>
       <c r="D154">
-        <v>-0.5994542050625402</v>
+        <v>-1.428716977584211</v>
       </c>
       <c r="E154">
-        <v>0.5489038894148814</v>
+        <v>0.1532514494713197</v>
       </c>
     </row>
     <row r="155">
@@ -3298,16 +3298,16 @@
         </is>
       </c>
       <c r="B155">
-        <v>-24.90918043799829</v>
+        <v>-49.797657721595</v>
       </c>
       <c r="C155">
-        <v>33.88394269781044</v>
+        <v>28.42524124579318</v>
       </c>
       <c r="D155">
-        <v>-0.7351322914262841</v>
+        <v>-1.751881621372865</v>
       </c>
       <c r="E155">
-        <v>0.4623018985424596</v>
+        <v>0.07995694244477547</v>
       </c>
     </row>
     <row r="156">
@@ -3317,16 +3317,16 @@
         </is>
       </c>
       <c r="B156">
-        <v>7.381513066222778</v>
+        <v>14.70656033164034</v>
       </c>
       <c r="C156">
-        <v>33.76686211471726</v>
+        <v>28.32702233870601</v>
       </c>
       <c r="D156">
-        <v>0.2186022805774882</v>
+        <v>0.5191707111250204</v>
       </c>
       <c r="E156">
-        <v>0.8269709948752892</v>
+        <v>0.6037027142511144</v>
       </c>
     </row>
     <row r="157">
@@ -3336,16 +3336,16 @@
         </is>
       </c>
       <c r="B157">
-        <v>-18.67744111659967</v>
+        <v>-37.34308066230935</v>
       </c>
       <c r="C157">
-        <v>33.76686211471647</v>
+        <v>28.3270223387064</v>
       </c>
       <c r="D157">
-        <v>-0.5531293092365712</v>
+        <v>-1.31828471823822</v>
       </c>
       <c r="E157">
-        <v>0.5802056873543208</v>
+        <v>0.1875686857891654</v>
       </c>
     </row>
     <row r="158">
@@ -3355,16 +3355,16 @@
         </is>
       </c>
       <c r="B158">
-        <v>-18.65578836182403</v>
+        <v>-37.29668630101673</v>
       </c>
       <c r="C158">
-        <v>33.76686211471608</v>
+        <v>28.32702233870791</v>
       </c>
       <c r="D158">
-        <v>-0.5524880665086604</v>
+        <v>-1.316646905384478</v>
       </c>
       <c r="E158">
-        <v>0.5806447856915413</v>
+        <v>0.1881172333292065</v>
       </c>
     </row>
     <row r="159">
@@ -3374,16 +3374,16 @@
         </is>
       </c>
       <c r="B159">
-        <v>42.43491222538305</v>
+        <v>84.90777971375392</v>
       </c>
       <c r="C159">
-        <v>33.88394269781065</v>
+        <v>28.42524124579374</v>
       </c>
       <c r="D159">
-        <v>1.252360523798339</v>
+        <v>2.987055729080867</v>
       </c>
       <c r="E159">
-        <v>0.2105115215531559</v>
+        <v>0.002853164542519934</v>
       </c>
     </row>
     <row r="160">
@@ -3393,16 +3393,16 @@
         </is>
       </c>
       <c r="B160">
-        <v>-11.12739237048534</v>
+        <v>-22.21963996450337</v>
       </c>
       <c r="C160">
-        <v>33.75904230517691</v>
+        <v>28.32046230008823</v>
       </c>
       <c r="D160">
-        <v>-0.3296122049285435</v>
+        <v>-0.784578999066486</v>
       </c>
       <c r="E160">
-        <v>0.7417102064582257</v>
+        <v>0.432799137496244</v>
       </c>
     </row>
     <row r="161">
@@ -3412,16 +3412,16 @@
         </is>
       </c>
       <c r="B161">
-        <v>-18.07570447813344</v>
+        <v>-36.13832931403035</v>
       </c>
       <c r="C161">
-        <v>33.76686211472128</v>
+        <v>28.32702233870719</v>
       </c>
       <c r="D161">
-        <v>-0.5353089788657918</v>
+        <v>-1.27575460921812</v>
       </c>
       <c r="E161">
-        <v>0.5924658880620917</v>
+        <v>0.2021996283496151</v>
       </c>
     </row>
     <row r="162">
@@ -3431,16 +3431,16 @@
         </is>
       </c>
       <c r="B162">
-        <v>-23.43069624630294</v>
+        <v>-46.88180524770248</v>
       </c>
       <c r="C162">
-        <v>33.75904230517684</v>
+        <v>28.32046230008791</v>
       </c>
       <c r="D162">
-        <v>-0.6940568999112252</v>
+        <v>-1.655403953188891</v>
       </c>
       <c r="E162">
-        <v>0.4876867104756374</v>
+        <v>0.09800921952245599</v>
       </c>
     </row>
     <row r="163">
@@ -3450,16 +3450,16 @@
         </is>
       </c>
       <c r="B163">
-        <v>-20.79599550215064</v>
+        <v>-41.57909602138297</v>
       </c>
       <c r="C163">
-        <v>33.75904230517763</v>
+        <v>28.32046230008682</v>
       </c>
       <c r="D163">
-        <v>-0.6160126023172511</v>
+        <v>-1.468164452289167</v>
       </c>
       <c r="E163">
-        <v>0.5379211486550382</v>
+        <v>0.1422265750165254</v>
       </c>
     </row>
     <row r="164">
@@ -3469,16 +3469,16 @@
         </is>
       </c>
       <c r="B164">
-        <v>-18.0250261727638</v>
+        <v>-36.02843904293017</v>
       </c>
       <c r="C164">
-        <v>33.75904230518064</v>
+        <v>28.32046230008687</v>
       </c>
       <c r="D164">
-        <v>-0.533931798473966</v>
+        <v>-1.272169877072228</v>
       </c>
       <c r="E164">
-        <v>0.5934183020128896</v>
+        <v>0.2034698467028796</v>
       </c>
     </row>
     <row r="165">
@@ -3488,16 +3488,16 @@
         </is>
       </c>
       <c r="B165">
-        <v>71.22909184789734</v>
+        <v>142.4418993086508</v>
       </c>
       <c r="C165">
-        <v>33.75904230517909</v>
+        <v>28.32046230008751</v>
       </c>
       <c r="D165">
-        <v>2.109926318525032</v>
+        <v>5.029645978208862</v>
       </c>
       <c r="E165">
-        <v>0.03492646400727291</v>
+        <v>5.380836710341019E-07</v>
       </c>
     </row>
     <row r="166">
@@ -3507,16 +3507,16 @@
         </is>
       </c>
       <c r="B166">
-        <v>34.62542929102523</v>
+        <v>69.25279403200985</v>
       </c>
       <c r="C166">
-        <v>33.76686211471879</v>
+        <v>28.32702233870827</v>
       </c>
       <c r="D166">
-        <v>1.025426323991538</v>
+        <v>2.444760808388158</v>
       </c>
       <c r="E166">
-        <v>0.3052238937778166</v>
+        <v>0.01458593240927184</v>
       </c>
     </row>
     <row r="167">
@@ -3526,16 +3526,16 @@
         </is>
       </c>
       <c r="B167">
-        <v>15.2488508567927</v>
+        <v>30.49719173634987</v>
       </c>
       <c r="C167">
-        <v>33.76686211471606</v>
+        <v>28.32702233870662</v>
       </c>
       <c r="D167">
-        <v>0.4515921794861431</v>
+        <v>1.076611278506244</v>
       </c>
       <c r="E167">
-        <v>0.6515872150227655</v>
+        <v>0.2817918766640617</v>
       </c>
     </row>
     <row r="168">
@@ -3545,16 +3545,16 @@
         </is>
       </c>
       <c r="B168">
-        <v>53.64679591821022</v>
+        <v>107.3168422564071</v>
       </c>
       <c r="C168">
-        <v>33.76686211471823</v>
+        <v>28.32702233870577</v>
       </c>
       <c r="D168">
-        <v>1.588740929967158</v>
+        <v>3.788497109693397</v>
       </c>
       <c r="E168">
-        <v>0.1121976901746223</v>
+        <v>0.0001563215426275559</v>
       </c>
     </row>
     <row r="169">
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="B169">
-        <v>9.202932790801297</v>
+        <v>18.43263788431372</v>
       </c>
       <c r="C169">
-        <v>33.76686211471956</v>
+        <v>28.32702233870682</v>
       </c>
       <c r="D169">
-        <v>0.27254332248982</v>
+        <v>0.6507086295168714</v>
       </c>
       <c r="E169">
-        <v>0.7852183107900554</v>
+        <v>0.5153139811462043</v>
       </c>
     </row>
     <row r="170">
@@ -3583,16 +3583,16 @@
         </is>
       </c>
       <c r="B170">
-        <v>-8.530219456463584</v>
+        <v>-17.05282621430701</v>
       </c>
       <c r="C170">
-        <v>33.76686211471797</v>
+        <v>28.32702233870751</v>
       </c>
       <c r="D170">
-        <v>-0.2526210290871391</v>
+        <v>-0.6019985443724225</v>
       </c>
       <c r="E170">
-        <v>0.8005740196035116</v>
+        <v>0.5472475827067473</v>
       </c>
     </row>
     <row r="171">
@@ -3602,16 +3602,16 @@
         </is>
       </c>
       <c r="B171">
-        <v>49.02171773032909</v>
+        <v>98.01833655750124</v>
       </c>
       <c r="C171">
-        <v>33.7590423051806</v>
+        <v>28.3204623000879</v>
       </c>
       <c r="D171">
-        <v>1.452106291617352</v>
+        <v>3.461042956110114</v>
       </c>
       <c r="E171">
-        <v>0.146550248128534</v>
+        <v>0.0005500909516322933</v>
       </c>
     </row>
     <row r="172">
@@ -3621,16 +3621,16 @@
         </is>
       </c>
       <c r="B172">
-        <v>-9.479823711871081</v>
+        <v>-18.96411891389016</v>
       </c>
       <c r="C172">
-        <v>33.76686211471854</v>
+        <v>28.32702233870599</v>
       </c>
       <c r="D172">
-        <v>-0.2807434010203438</v>
+        <v>-0.6694709626425374</v>
       </c>
       <c r="E172">
-        <v>0.7789216936322636</v>
+        <v>0.5032771746820881</v>
       </c>
     </row>
     <row r="173">
@@ -3640,16 +3640,16 @@
         </is>
       </c>
       <c r="B173">
-        <v>-15.63577117717399</v>
+        <v>-31.26998415149754</v>
       </c>
       <c r="C173">
-        <v>33.76686211471647</v>
+        <v>28.32702233870664</v>
       </c>
       <c r="D173">
-        <v>-0.4630507603595038</v>
+        <v>-1.103892381543032</v>
       </c>
       <c r="E173">
-        <v>0.6433530984864142</v>
+        <v>0.2697808696193009</v>
       </c>
     </row>
     <row r="174">
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="B174">
-        <v>-23.38274771353003</v>
+        <v>-46.7508181698461</v>
       </c>
       <c r="C174">
-        <v>33.88394269780949</v>
+        <v>28.42524124579278</v>
       </c>
       <c r="D174">
-        <v>-0.6900834392876503</v>
+        <v>-1.644693804551815</v>
       </c>
       <c r="E174">
-        <v>0.4901816324269064</v>
+        <v>0.1001998864292528</v>
       </c>
     </row>
     <row r="175">
@@ -3678,16 +3678,16 @@
         </is>
       </c>
       <c r="B175">
-        <v>16.66707092789074</v>
+        <v>33.35225916318349</v>
       </c>
       <c r="C175">
-        <v>33.7668621147173</v>
+        <v>28.32702233870753</v>
       </c>
       <c r="D175">
-        <v>0.4935925307855712</v>
+        <v>1.177400814119782</v>
       </c>
       <c r="E175">
-        <v>0.6216209952237599</v>
+        <v>0.2391843595855211</v>
       </c>
     </row>
     <row r="176">
@@ -3697,16 +3697,16 @@
         </is>
       </c>
       <c r="B176">
-        <v>1.968337212699043</v>
+        <v>3.962514032961482</v>
       </c>
       <c r="C176">
-        <v>33.76686211471838</v>
+        <v>28.3270223387072</v>
       </c>
       <c r="D176">
-        <v>0.05829197886412667</v>
+        <v>0.1398845944900795</v>
       </c>
       <c r="E176">
-        <v>0.9535189596096624</v>
+        <v>0.8887661336194934</v>
       </c>
     </row>
     <row r="177">
@@ -3716,16 +3716,16 @@
         </is>
       </c>
       <c r="B177">
-        <v>-5.936990896855793</v>
+        <v>-11.87636266041351</v>
       </c>
       <c r="C177">
-        <v>33.76686211471964</v>
+        <v>28.32702233870623</v>
       </c>
       <c r="D177">
-        <v>-0.1758229970165852</v>
+        <v>-0.419259127147493</v>
       </c>
       <c r="E177">
-        <v>0.8604418754814736</v>
+        <v>0.6750745870110487</v>
       </c>
     </row>
     <row r="178">
@@ -3735,16 +3735,16 @@
         </is>
       </c>
       <c r="B178">
-        <v>-10.3607461422108</v>
+        <v>-20.72110101446636</v>
       </c>
       <c r="C178">
-        <v>33.76686211471799</v>
+        <v>28.32702233870707</v>
       </c>
       <c r="D178">
-        <v>-0.3068317721383669</v>
+        <v>-0.7314959111022514</v>
       </c>
       <c r="E178">
-        <v>0.7589873467423933</v>
+        <v>0.4645673211259352</v>
       </c>
     </row>
     <row r="179">
@@ -3754,16 +3754,16 @@
         </is>
       </c>
       <c r="B179">
-        <v>1.636481089893141</v>
+        <v>3.27337277380244</v>
       </c>
       <c r="C179">
-        <v>33.75904230517823</v>
+        <v>28.32046230008681</v>
       </c>
       <c r="D179">
-        <v>0.04847534106860978</v>
+        <v>0.1155833100151196</v>
       </c>
       <c r="E179">
-        <v>0.9613398291880106</v>
+        <v>0.9079951151083274</v>
       </c>
     </row>
     <row r="180">
@@ -3773,16 +3773,16 @@
         </is>
       </c>
       <c r="B180">
-        <v>-12.00635264164785</v>
+        <v>-23.99162964891988</v>
       </c>
       <c r="C180">
-        <v>33.7668621147163</v>
+        <v>28.32702233870634</v>
       </c>
       <c r="D180">
-        <v>-0.3555661346576599</v>
+        <v>-0.8469520503091306</v>
       </c>
       <c r="E180">
-        <v>0.7221842017222343</v>
+        <v>0.3971294764964539</v>
       </c>
     </row>
     <row r="181">
@@ -3792,16 +3792,16 @@
         </is>
       </c>
       <c r="B181">
-        <v>-20.95210995626414</v>
+        <v>-41.90879783876898</v>
       </c>
       <c r="C181">
-        <v>33.76686211471863</v>
+        <v>28.32702233870711</v>
       </c>
       <c r="D181">
-        <v>-0.6204932482349709</v>
+        <v>-1.479463578545748</v>
       </c>
       <c r="E181">
-        <v>0.5349683418976203</v>
+        <v>0.139183729412382</v>
       </c>
     </row>
     <row r="182">
@@ -3811,16 +3811,16 @@
         </is>
       </c>
       <c r="B182">
-        <v>57.69753904292755</v>
+        <v>115.4170036301652</v>
       </c>
       <c r="C182">
-        <v>33.76686211471903</v>
+        <v>28.32702233870594</v>
       </c>
       <c r="D182">
-        <v>1.708703013235485</v>
+        <v>4.074448851352083</v>
       </c>
       <c r="E182">
-        <v>0.08758332106043805</v>
+        <v>4.803828285524142E-05</v>
       </c>
     </row>
     <row r="183">
@@ -3830,16 +3830,16 @@
         </is>
       </c>
       <c r="B183">
-        <v>1.730180481819</v>
+        <v>3.466413238092634</v>
       </c>
       <c r="C183">
-        <v>33.76686211471815</v>
+        <v>28.32702233870599</v>
       </c>
       <c r="D183">
-        <v>0.05123900692758941</v>
+        <v>0.1223712537323817</v>
       </c>
       <c r="E183">
-        <v>0.9591376204100712</v>
+        <v>0.9026180617901417</v>
       </c>
     </row>
     <row r="184">
@@ -3849,16 +3849,16 @@
         </is>
       </c>
       <c r="B184">
-        <v>-10.78813747169051</v>
+        <v>-21.56662811203665</v>
       </c>
       <c r="C184">
-        <v>33.76686211472058</v>
+        <v>28.3270223387066</v>
       </c>
       <c r="D184">
-        <v>-0.31948889520852</v>
+        <v>-0.7613446925047107</v>
       </c>
       <c r="E184">
-        <v>0.7493724452063448</v>
+        <v>0.4465465484494797</v>
       </c>
     </row>
     <row r="185">
@@ -3868,16 +3868,16 @@
         </is>
       </c>
       <c r="B185">
-        <v>6.928720397869211</v>
+        <v>13.8814990399717</v>
       </c>
       <c r="C185">
-        <v>33.75904230517993</v>
+        <v>28.32046230008752</v>
       </c>
       <c r="D185">
-        <v>0.2052404311483113</v>
+        <v>0.4901579251384185</v>
       </c>
       <c r="E185">
-        <v>0.8373946944079251</v>
+        <v>0.6240792559653231</v>
       </c>
     </row>
     <row r="186">
@@ -3887,16 +3887,16 @@
         </is>
       </c>
       <c r="B186">
-        <v>-2.319595877293898</v>
+        <v>-4.622519874409726</v>
       </c>
       <c r="C186">
-        <v>33.75904230517915</v>
+        <v>28.32046230008781</v>
       </c>
       <c r="D186">
-        <v>-0.06871035784501615</v>
+        <v>-0.1632219073766813</v>
       </c>
       <c r="E186">
-        <v>0.9452235974367925</v>
+        <v>0.8703612330086909</v>
       </c>
     </row>
     <row r="187">
@@ -3906,16 +3906,16 @@
         </is>
       </c>
       <c r="B187">
-        <v>-15.27112460713261</v>
+        <v>-30.53010424229413</v>
       </c>
       <c r="C187">
-        <v>33.75904230517794</v>
+        <v>28.32046230008748</v>
       </c>
       <c r="D187">
-        <v>-0.4523565706954411</v>
+        <v>-1.078022806223747</v>
       </c>
       <c r="E187">
-        <v>0.6510365852021736</v>
+        <v>0.2811616569866181</v>
       </c>
     </row>
     <row r="188">
@@ -3925,16 +3925,16 @@
         </is>
       </c>
       <c r="B188">
-        <v>9.001673984815222</v>
+        <v>18.01831914762289</v>
       </c>
       <c r="C188">
-        <v>33.75904230517962</v>
+        <v>28.32046230008737</v>
       </c>
       <c r="D188">
-        <v>0.2666448266938575</v>
+        <v>0.6362296969837001</v>
       </c>
       <c r="E188">
-        <v>0.7897563414703728</v>
+        <v>0.5247040438703595</v>
       </c>
     </row>
     <row r="189">
@@ -3944,16 +3944,16 @@
         </is>
       </c>
       <c r="B189">
-        <v>-3.475897445929236</v>
+        <v>-6.939129031183807</v>
       </c>
       <c r="C189">
-        <v>33.76686211472011</v>
+        <v>28.32702233870612</v>
       </c>
       <c r="D189">
-        <v>-0.102938124191705</v>
+        <v>-0.2449650001405959</v>
       </c>
       <c r="E189">
-        <v>0.9180172243560729</v>
+        <v>0.8065102237151396</v>
       </c>
     </row>
     <row r="190">
@@ -3963,16 +3963,16 @@
         </is>
       </c>
       <c r="B190">
-        <v>-14.13927154844971</v>
+        <v>-28.27097295431418</v>
       </c>
       <c r="C190">
-        <v>33.75904230517837</v>
+        <v>28.32046230008704</v>
       </c>
       <c r="D190">
-        <v>-0.4188291664387901</v>
+        <v>-0.9982525233787336</v>
       </c>
       <c r="E190">
-        <v>0.6753634077184217</v>
+        <v>0.3182851841411722</v>
       </c>
     </row>
     <row r="191">
@@ -3982,16 +3982,16 @@
         </is>
       </c>
       <c r="B191">
-        <v>10.71782762855384</v>
+        <v>21.426447984229</v>
       </c>
       <c r="C191">
-        <v>33.75904230517764</v>
+        <v>28.32046230008731</v>
       </c>
       <c r="D191">
-        <v>0.3174802037233752</v>
+        <v>0.7565712648752539</v>
       </c>
       <c r="E191">
-        <v>0.7508957794089508</v>
+        <v>0.4494014079016176</v>
       </c>
     </row>
     <row r="192">
@@ -4001,16 +4001,16 @@
         </is>
       </c>
       <c r="B192">
-        <v>-13.06549440893099</v>
+        <v>-26.1337669735887</v>
       </c>
       <c r="C192">
-        <v>33.76686211471841</v>
+        <v>28.32702233870637</v>
       </c>
       <c r="D192">
-        <v>-0.3869324417691734</v>
+        <v>-0.9225737411121825</v>
       </c>
       <c r="E192">
-        <v>0.6988267451417529</v>
+        <v>0.3563475785477934</v>
       </c>
     </row>
     <row r="193">
@@ -4020,16 +4020,16 @@
         </is>
       </c>
       <c r="B193">
-        <v>8.059755335772151</v>
+        <v>16.14897970550225</v>
       </c>
       <c r="C193">
-        <v>33.75904230517884</v>
+        <v>28.32046230008684</v>
       </c>
       <c r="D193">
-        <v>0.23874360128207</v>
+        <v>0.5702230258244314</v>
       </c>
       <c r="E193">
-        <v>0.8113165989074662</v>
+        <v>0.5685944701132086</v>
       </c>
     </row>
     <row r="194">
@@ -4039,16 +4039,16 @@
         </is>
       </c>
       <c r="B194">
-        <v>-18.1329071277402</v>
+        <v>-36.27032406206575</v>
       </c>
       <c r="C194">
-        <v>33.75904230517993</v>
+        <v>28.32046230008709</v>
       </c>
       <c r="D194">
-        <v>-0.5371274150439368</v>
+        <v>-1.280710875328974</v>
       </c>
       <c r="E194">
-        <v>0.5912093913432499</v>
+        <v>0.200452959816915</v>
       </c>
     </row>
     <row r="195">
@@ -4058,16 +4058,16 @@
         </is>
       </c>
       <c r="B195">
-        <v>-15.97235700697405</v>
+        <v>-31.94345936620276</v>
       </c>
       <c r="C195">
-        <v>33.76686211471935</v>
+        <v>28.32702233870636</v>
       </c>
       <c r="D195">
-        <v>-0.4730186936739829</v>
+        <v>-1.127667390672223</v>
       </c>
       <c r="E195">
-        <v>0.6362255751849666</v>
+        <v>0.2596040809136946</v>
       </c>
     </row>
     <row r="196">
@@ -4077,16 +4077,16 @@
         </is>
       </c>
       <c r="B196">
-        <v>23.71949558165765</v>
+        <v>47.45564610110353</v>
       </c>
       <c r="C196">
-        <v>33.75904230517891</v>
+        <v>28.32046230008659</v>
       </c>
       <c r="D196">
-        <v>0.7026116252716946</v>
+        <v>1.675666364420839</v>
       </c>
       <c r="E196">
-        <v>0.4823385789568229</v>
+        <v>0.09396958334957534</v>
       </c>
     </row>
     <row r="197">
@@ -4096,16 +4096,16 @@
         </is>
       </c>
       <c r="B197">
-        <v>-12.02170976607892</v>
+        <v>-24.03862962446665</v>
       </c>
       <c r="C197">
-        <v>33.75904230517954</v>
+        <v>28.32046230008682</v>
       </c>
       <c r="D197">
-        <v>-0.3561034006060789</v>
+        <v>-0.8488078114598063</v>
       </c>
       <c r="E197">
-        <v>0.7217818544517988</v>
+        <v>0.3960961343719748</v>
       </c>
     </row>
     <row r="198">
@@ -4115,16 +4115,16 @@
         </is>
       </c>
       <c r="B198">
-        <v>-8.791358709464268</v>
+        <v>-17.58200732280925</v>
       </c>
       <c r="C198">
-        <v>33.75904230517809</v>
+        <v>28.32046230008743</v>
       </c>
       <c r="D198">
-        <v>-0.2604149320940842</v>
+        <v>-0.6208234574883679</v>
       </c>
       <c r="E198">
-        <v>0.7945570901975438</v>
+        <v>0.5347909230819318</v>
       </c>
     </row>
     <row r="199">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B199">
-        <v>-15.87124090643492</v>
+        <v>-31.72982942586593</v>
       </c>
       <c r="C199">
-        <v>33.75904230517812</v>
+        <v>28.32046230008713</v>
       </c>
       <c r="D199">
-        <v>-0.4701330317063085</v>
+        <v>-1.120385292077959</v>
       </c>
       <c r="E199">
-        <v>0.6382855296125429</v>
+        <v>0.2626924847844448</v>
       </c>
     </row>
     <row r="200">
@@ -4153,16 +4153,16 @@
         </is>
       </c>
       <c r="B200">
-        <v>25.32938935270756</v>
+        <v>50.67539457015926</v>
       </c>
       <c r="C200">
-        <v>33.75904230517918</v>
+        <v>28.32046230008679</v>
       </c>
       <c r="D200">
-        <v>0.7502994049337006</v>
+        <v>1.789356191759764</v>
       </c>
       <c r="E200">
-        <v>0.4531183990537189</v>
+        <v>0.07371813355588509</v>
       </c>
     </row>
     <row r="201">
@@ -4172,16 +4172,16 @@
         </is>
       </c>
       <c r="B201">
-        <v>-10.74368083104209</v>
+        <v>-21.47636238613214</v>
       </c>
       <c r="C201">
-        <v>33.75904230517781</v>
+        <v>28.32046230008754</v>
       </c>
       <c r="D201">
-        <v>-0.3182460193603973</v>
+        <v>-0.7583337502956565</v>
       </c>
       <c r="E201">
-        <v>0.7503148917756317</v>
+        <v>0.4483461079615775</v>
       </c>
     </row>
     <row r="202">
@@ -4191,16 +4191,16 @@
         </is>
       </c>
       <c r="B202">
-        <v>-18.49291110138477</v>
+        <v>-36.95965057882169</v>
       </c>
       <c r="C202">
-        <v>33.75904230517811</v>
+        <v>28.32046230008737</v>
       </c>
       <c r="D202">
-        <v>-0.5477913423672047</v>
+        <v>-1.305051103586952</v>
       </c>
       <c r="E202">
-        <v>0.5838656576297112</v>
+        <v>0.1920348997732212</v>
       </c>
     </row>
     <row r="203">
@@ -4210,16 +4210,16 @@
         </is>
       </c>
       <c r="B203">
-        <v>6.972533861242752</v>
+        <v>13.97601283321577</v>
       </c>
       <c r="C203">
-        <v>33.75904230517837</v>
+        <v>28.32046230008785</v>
       </c>
       <c r="D203">
-        <v>0.2065382601263313</v>
+        <v>0.493495222116216</v>
       </c>
       <c r="E203">
-        <v>0.8363809622397553</v>
+        <v>0.6217202659405767</v>
       </c>
     </row>
     <row r="204">
@@ -4229,16 +4229,16 @@
         </is>
       </c>
       <c r="B204">
-        <v>-23.61786335256289</v>
+        <v>-47.23323730580065</v>
       </c>
       <c r="C204">
-        <v>33.75904230517848</v>
+        <v>28.32046230008773</v>
       </c>
       <c r="D204">
-        <v>-0.6996011065438316</v>
+        <v>-1.667813074705858</v>
       </c>
       <c r="E204">
-        <v>0.4842170107415604</v>
+        <v>0.09551911164633008</v>
       </c>
     </row>
     <row r="205">
@@ -4248,16 +4248,16 @@
         </is>
       </c>
       <c r="B205">
-        <v>-14.33646759866909</v>
+        <v>-28.66764958036029</v>
       </c>
       <c r="C205">
-        <v>33.75904230517844</v>
+        <v>28.32046230008692</v>
       </c>
       <c r="D205">
-        <v>-0.4246704473743308</v>
+        <v>-1.012259237741056</v>
       </c>
       <c r="E205">
-        <v>0.6710997021624158</v>
+        <v>0.3115441700922867</v>
       </c>
     </row>
     <row r="206">
@@ -4267,16 +4267,16 @@
         </is>
       </c>
       <c r="B206">
-        <v>-19.90012295342709</v>
+        <v>-39.79143417642391</v>
       </c>
       <c r="C206">
-        <v>33.75904230517745</v>
+        <v>28.32046230008722</v>
       </c>
       <c r="D206">
-        <v>-0.5894753403705151</v>
+        <v>-1.405041829995175</v>
       </c>
       <c r="E206">
-        <v>0.5555756416974515</v>
+        <v>0.1601737875734029</v>
       </c>
     </row>
     <row r="207">
@@ -4286,16 +4286,16 @@
         </is>
       </c>
       <c r="B207">
-        <v>-20.14433155184359</v>
+        <v>-40.32473874893662</v>
       </c>
       <c r="C207">
-        <v>33.75904230517853</v>
+        <v>28.32046230008768</v>
       </c>
       <c r="D207">
-        <v>-0.5967092125937919</v>
+        <v>-1.423872898741903</v>
       </c>
       <c r="E207">
-        <v>0.550735209370951</v>
+        <v>0.1546489489229659</v>
       </c>
     </row>
     <row r="208">
@@ -4305,16 +4305,16 @@
         </is>
       </c>
       <c r="B208">
-        <v>0.8540223837866249</v>
+        <v>1.732493698690156</v>
       </c>
       <c r="C208">
-        <v>33.75904230517936</v>
+        <v>28.32046230008732</v>
       </c>
       <c r="D208">
-        <v>0.02529758919303228</v>
+        <v>0.06117462632962789</v>
       </c>
       <c r="E208">
-        <v>0.9798188549868927</v>
+        <v>0.9512266291803044</v>
       </c>
     </row>
     <row r="209">
@@ -4324,16 +4324,16 @@
         </is>
       </c>
       <c r="B209">
-        <v>-19.29319810498709</v>
+        <v>-38.57568209441593</v>
       </c>
       <c r="C209">
-        <v>33.75904230517941</v>
+        <v>28.32046230008781</v>
       </c>
       <c r="D209">
-        <v>-0.5714971986046853</v>
+        <v>-1.362113431824039</v>
       </c>
       <c r="E209">
-        <v>0.5676946724659382</v>
+        <v>0.1733250046396988</v>
       </c>
     </row>
     <row r="210">
@@ -4343,16 +4343,16 @@
         </is>
       </c>
       <c r="B210">
-        <v>-19.13092605252186</v>
+        <v>-38.25627157475689</v>
       </c>
       <c r="C210">
-        <v>33.75904230517867</v>
+        <v>28.32046230008741</v>
       </c>
       <c r="D210">
-        <v>-0.5666904256222681</v>
+        <v>-1.350834995890544</v>
       </c>
       <c r="E210">
-        <v>0.5709562270117086</v>
+        <v>0.1769105931967446</v>
       </c>
     </row>
     <row r="211">
@@ -4362,16 +4362,16 @@
         </is>
       </c>
       <c r="B211">
-        <v>613.8973735366293</v>
+        <v>1227.822923881923</v>
       </c>
       <c r="C211">
-        <v>33.75904230517802</v>
+        <v>28.32046230008698</v>
       </c>
       <c r="D211">
-        <v>18.18467976629979</v>
+        <v>43.35462150553072</v>
       </c>
       <c r="E211">
-        <v>4.543556061665748E-71</v>
+        <v>2.301394215600398E-285</v>
       </c>
     </row>
     <row r="212">
@@ -4381,16 +4381,16 @@
         </is>
       </c>
       <c r="B212">
-        <v>258.591600129058</v>
+        <v>517.2186677350405</v>
       </c>
       <c r="C212">
-        <v>33.75904230517801</v>
+        <v>28.3204623000874</v>
       </c>
       <c r="D212">
-        <v>7.659921089923655</v>
+        <v>18.26307290659745</v>
       </c>
       <c r="E212">
-        <v>2.317504515693775E-14</v>
+        <v>9.828456376242893E-69</v>
       </c>
     </row>
     <row r="213">
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="B213">
-        <v>-6.219582925101084</v>
+        <v>-12.42259844016712</v>
       </c>
       <c r="C213">
-        <v>33.7668621147191</v>
+        <v>28.32702233870667</v>
       </c>
       <c r="D213">
-        <v>-0.1841919128869823</v>
+        <v>-0.4385423321812617</v>
       </c>
       <c r="E213">
-        <v>0.8538722124268276</v>
+        <v>0.6610434984662127</v>
       </c>
     </row>
     <row r="214">
@@ -4419,16 +4419,16 @@
         </is>
       </c>
       <c r="B214">
-        <v>16.09967166079289</v>
+        <v>32.23130226243676</v>
       </c>
       <c r="C214">
-        <v>33.75904230517758</v>
+        <v>28.32046230008722</v>
       </c>
       <c r="D214">
-        <v>0.4768995374706974</v>
+        <v>1.138092377197441</v>
       </c>
       <c r="E214">
-        <v>0.6334596354955015</v>
+        <v>0.2552266931616108</v>
       </c>
     </row>
     <row r="215">
@@ -4438,16 +4438,16 @@
         </is>
       </c>
       <c r="B215">
-        <v>11.1085369107505</v>
+        <v>22.25010415916762</v>
       </c>
       <c r="C215">
-        <v>33.75904230517886</v>
+        <v>28.32046230008742</v>
       </c>
       <c r="D215">
-        <v>0.3290536742817012</v>
+        <v>0.7856546945951138</v>
       </c>
       <c r="E215">
-        <v>0.7421322940841557</v>
+        <v>0.4321686576754986</v>
       </c>
     </row>
     <row r="216">
@@ -4457,16 +4457,16 @@
         </is>
       </c>
       <c r="B216">
-        <v>2.551524154480702</v>
+        <v>5.126366427582965</v>
       </c>
       <c r="C216">
-        <v>33.75904230517904</v>
+        <v>28.32046230008744</v>
       </c>
       <c r="D216">
-        <v>0.07558046615822595</v>
+        <v>0.1810128088045772</v>
       </c>
       <c r="E216">
-        <v>0.9397566460789575</v>
+        <v>0.8563770024540466</v>
       </c>
     </row>
     <row r="217">
@@ -4476,16 +4476,16 @@
         </is>
       </c>
       <c r="B217">
-        <v>0.9888250121839399</v>
+        <v>2.007050266977621</v>
       </c>
       <c r="C217">
-        <v>33.75904230517903</v>
+        <v>28.32046230008713</v>
       </c>
       <c r="D217">
-        <v>0.02929067131836979</v>
+        <v>0.07086926215083171</v>
       </c>
       <c r="E217">
-        <v>0.9766342237921886</v>
+        <v>0.943509332741999</v>
       </c>
     </row>
     <row r="218">
@@ -4495,16 +4495,16 @@
         </is>
       </c>
       <c r="B218">
-        <v>19.33043754770853</v>
+        <v>38.68372697849334</v>
       </c>
       <c r="C218">
-        <v>33.75904230517826</v>
+        <v>28.32046230008711</v>
       </c>
       <c r="D218">
-        <v>0.5726002939586785</v>
+        <v>1.365928513757855</v>
       </c>
       <c r="E218">
-        <v>0.5669474463987139</v>
+        <v>0.1721245174902891</v>
       </c>
     </row>
     <row r="219">
@@ -4514,16 +4514,16 @@
         </is>
       </c>
       <c r="B219">
-        <v>-6.074446798548183</v>
+        <v>-12.11704771383883</v>
       </c>
       <c r="C219">
-        <v>33.75904230517815</v>
+        <v>28.32046230008698</v>
       </c>
       <c r="D219">
-        <v>-0.1799354005257564</v>
+        <v>-0.4278548699327419</v>
       </c>
       <c r="E219">
-        <v>0.8572123703377841</v>
+        <v>0.6688057128286664</v>
       </c>
     </row>
     <row r="220">
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="B220">
-        <v>-24.49068562634088</v>
+        <v>-49.07397380218953</v>
       </c>
       <c r="C220">
-        <v>33.88394269780923</v>
+        <v>28.42524124579283</v>
       </c>
       <c r="D220">
-        <v>-0.7227814615541871</v>
+        <v>-1.72642242075792</v>
       </c>
       <c r="E220">
-        <v>0.4698562890970651</v>
+        <v>0.08443546691935613</v>
       </c>
     </row>
     <row r="221">
@@ -4552,16 +4552,16 @@
         </is>
       </c>
       <c r="B221">
-        <v>37.78922036630093</v>
+        <v>75.61199339635806</v>
       </c>
       <c r="C221">
-        <v>33.75904230517834</v>
+        <v>28.32046230008715</v>
       </c>
       <c r="D221">
-        <v>1.119380698797383</v>
+        <v>2.669871437661008</v>
       </c>
       <c r="E221">
-        <v>0.2630447721876958</v>
+        <v>0.007653261372738585</v>
       </c>
     </row>
     <row r="222">
@@ -4571,16 +4571,16 @@
         </is>
       </c>
       <c r="B222">
-        <v>-19.39416732967737</v>
+        <v>-38.77557983900309</v>
       </c>
       <c r="C222">
-        <v>33.75904230517899</v>
+        <v>28.32046230008704</v>
       </c>
       <c r="D222">
-        <v>-0.5744880780193846</v>
+        <v>-1.369171852780239</v>
       </c>
       <c r="E222">
-        <v>0.5656697749983662</v>
+        <v>0.1711088453705979</v>
       </c>
     </row>
     <row r="223">
@@ -4590,16 +4590,16 @@
         </is>
       </c>
       <c r="B223">
-        <v>42.61643273668216</v>
+        <v>85.24675354179833</v>
       </c>
       <c r="C223">
-        <v>36.10568565507081</v>
+        <v>30.28906152519605</v>
       </c>
       <c r="D223">
-        <v>1.180324704087068</v>
+        <v>2.814440238463168</v>
       </c>
       <c r="E223">
-        <v>0.2379410712006325</v>
+        <v>0.004937028632634993</v>
       </c>
     </row>
     <row r="224">
@@ -4609,16 +4609,16 @@
         </is>
       </c>
       <c r="B224">
-        <v>8.630653125583622</v>
+        <v>17.30302602751</v>
       </c>
       <c r="C224">
-        <v>33.75904230517886</v>
+        <v>28.32046230008727</v>
       </c>
       <c r="D224">
-        <v>0.2556545605637522</v>
+        <v>0.6109725838570326</v>
       </c>
       <c r="E224">
-        <v>0.7982306904773981</v>
+        <v>0.5412914726203222</v>
       </c>
     </row>
     <row r="225">
@@ -4628,16 +4628,16 @@
         </is>
       </c>
       <c r="B225">
-        <v>-19.09037376131384</v>
+        <v>-38.18096959335675</v>
       </c>
       <c r="C225">
-        <v>33.76686211471831</v>
+        <v>28.32702233870694</v>
       </c>
       <c r="D225">
-        <v>-0.5653582407644777</v>
+        <v>-1.34786385723236</v>
       </c>
       <c r="E225">
-        <v>0.5718617354570692</v>
+        <v>0.1778643048808022</v>
       </c>
     </row>
     <row r="226">
@@ -4647,16 +4647,16 @@
         </is>
       </c>
       <c r="B226">
-        <v>-21.06428193770308</v>
+        <v>-42.14607270158817</v>
       </c>
       <c r="C226">
-        <v>33.76686211471866</v>
+        <v>28.32702233870699</v>
       </c>
       <c r="D226">
-        <v>-0.6238152027908258</v>
+        <v>-1.487839851208024</v>
       </c>
       <c r="E226">
-        <v>0.5327844194631328</v>
+        <v>0.1369605688491658</v>
       </c>
     </row>
     <row r="227">
@@ -4666,16 +4666,16 @@
         </is>
       </c>
       <c r="B227">
-        <v>-21.96142359741635</v>
+        <v>-43.95189606854416</v>
       </c>
       <c r="C227">
-        <v>33.75904230517845</v>
+        <v>28.3204623000872</v>
       </c>
       <c r="D227">
-        <v>-0.6505345560127929</v>
+        <v>-1.551948396986755</v>
       </c>
       <c r="E227">
-        <v>0.5153842390539631</v>
+        <v>0.1208426175217504</v>
       </c>
     </row>
     <row r="228">
@@ -4685,16 +4685,16 @@
         </is>
       </c>
       <c r="B228">
-        <v>-21.31972016026037</v>
+        <v>-42.66170758555432</v>
       </c>
       <c r="C228">
-        <v>33.76686211471868</v>
+        <v>28.32702233870689</v>
       </c>
       <c r="D228">
-        <v>-0.6313799632263517</v>
+        <v>-1.506042784004872</v>
       </c>
       <c r="E228">
-        <v>0.5278280833193538</v>
+        <v>0.1322239168484471</v>
       </c>
     </row>
     <row r="229">
@@ -4704,16 +4704,16 @@
         </is>
       </c>
       <c r="B229">
-        <v>-20.05198141958941</v>
+        <v>-40.1416781177584</v>
       </c>
       <c r="C229">
-        <v>33.75904230517862</v>
+        <v>28.32046230008732</v>
       </c>
       <c r="D229">
-        <v>-0.5939736452924628</v>
+        <v>-1.417408998921413</v>
       </c>
       <c r="E229">
-        <v>0.552563228467442</v>
+        <v>0.1565288232127307</v>
       </c>
     </row>
     <row r="230">
@@ -4723,16 +4723,16 @@
         </is>
       </c>
       <c r="B230">
-        <v>-4.796358139383672</v>
+        <v>-9.663802577961743</v>
       </c>
       <c r="C230">
-        <v>33.75904230517849</v>
+        <v>28.32046230008722</v>
       </c>
       <c r="D230">
-        <v>-0.1420762501502577</v>
+        <v>-0.3412303964378428</v>
       </c>
       <c r="E230">
-        <v>0.887026911321899</v>
+        <v>0.7329682131548602</v>
       </c>
     </row>
     <row r="231">
@@ -4742,16 +4742,16 @@
         </is>
       </c>
       <c r="B231">
-        <v>-13.25914449831305</v>
+        <v>-26.62221480266535</v>
       </c>
       <c r="C231">
-        <v>33.88394269780933</v>
+        <v>28.42524124579295</v>
       </c>
       <c r="D231">
-        <v>-0.3913105572324758</v>
+        <v>-0.9365695289078874</v>
       </c>
       <c r="E231">
-        <v>0.6955884765013945</v>
+        <v>0.3491001321421731</v>
       </c>
     </row>
     <row r="232">
@@ -4761,16 +4761,16 @@
         </is>
       </c>
       <c r="B232">
-        <v>-25.28645497846188</v>
+        <v>-50.70497692000331</v>
       </c>
       <c r="C232">
-        <v>33.8839426978092</v>
+        <v>28.42524124579294</v>
       </c>
       <c r="D232">
-        <v>-0.7462666078731386</v>
+        <v>-1.783801111186976</v>
       </c>
       <c r="E232">
-        <v>0.4555501030876538</v>
+        <v>0.07461698658082445</v>
       </c>
     </row>
     <row r="233">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B233">
-        <v>-23.77137103787568</v>
+        <v>-47.53935569011848</v>
       </c>
       <c r="C233">
-        <v>33.88394269780923</v>
+        <v>28.42524124579298</v>
       </c>
       <c r="D233">
-        <v>-0.7015526867660716</v>
+        <v>-1.672434554874867</v>
       </c>
       <c r="E233">
-        <v>0.4829988580548045</v>
+        <v>0.09460478961322516</v>
       </c>
     </row>
     <row r="234">
@@ -4799,16 +4799,16 @@
         </is>
       </c>
       <c r="B234">
-        <v>-21.10173594522093</v>
+        <v>-42.21153996213746</v>
       </c>
       <c r="C234">
-        <v>33.75904230517848</v>
+        <v>28.32046230008728</v>
       </c>
       <c r="D234">
-        <v>-0.625069151976033</v>
+        <v>-1.490496147797961</v>
       </c>
       <c r="E234">
-        <v>0.5319612217907892</v>
+        <v>0.136261312331338</v>
       </c>
     </row>
     <row r="235">
@@ -4818,16 +4818,16 @@
         </is>
       </c>
       <c r="B235">
-        <v>-19.51137123040949</v>
+        <v>-39.02086552558973</v>
       </c>
       <c r="C235">
-        <v>33.7590423051784</v>
+        <v>28.32046230008726</v>
       </c>
       <c r="D235">
-        <v>-0.5779598560299378</v>
+        <v>-1.377832929142174</v>
       </c>
       <c r="E235">
-        <v>0.5633236587106247</v>
+        <v>0.1684185936642984</v>
       </c>
     </row>
     <row r="236">
@@ -4837,16 +4837,16 @@
         </is>
       </c>
       <c r="B236">
-        <v>-11.21064587862735</v>
+        <v>-22.43363812281549</v>
       </c>
       <c r="C236">
-        <v>33.76686211471881</v>
+        <v>28.32702233870679</v>
       </c>
       <c r="D236">
-        <v>-0.3320014113405192</v>
+        <v>-0.791951863297738</v>
       </c>
       <c r="E236">
-        <v>0.7399055361433173</v>
+        <v>0.4284884975287875</v>
       </c>
     </row>
     <row r="237">
@@ -4856,16 +4856,16 @@
         </is>
       </c>
       <c r="B237">
-        <v>-12.29126121797643</v>
+        <v>-24.59182942550835</v>
       </c>
       <c r="C237">
-        <v>33.76686211471877</v>
+        <v>28.32702233870681</v>
       </c>
       <c r="D237">
-        <v>-0.3640036547138547</v>
+        <v>-0.8681402913254813</v>
       </c>
       <c r="E237">
-        <v>0.7158744614666126</v>
+        <v>0.3854281625733432</v>
       </c>
     </row>
     <row r="238">
@@ -4875,16 +4875,16 @@
         </is>
       </c>
       <c r="B238">
-        <v>-19.1274675758225</v>
+        <v>-38.25140260358731</v>
       </c>
       <c r="C238">
-        <v>33.75904230517847</v>
+        <v>28.32046230008727</v>
       </c>
       <c r="D238">
-        <v>-0.5665879796859179</v>
+        <v>-1.350663071748989</v>
       </c>
       <c r="E238">
-        <v>0.5710258369925879</v>
+        <v>0.1769656753182423</v>
       </c>
     </row>
     <row r="239">
@@ -4894,16 +4894,16 @@
         </is>
       </c>
       <c r="B239">
-        <v>-18.24031265476836</v>
+        <v>-36.48126134418123</v>
       </c>
       <c r="C239">
-        <v>33.76686211471874</v>
+        <v>28.32702233870682</v>
       </c>
       <c r="D239">
-        <v>-0.5401838226128075</v>
+        <v>-1.287860789177697</v>
       </c>
       <c r="E239">
-        <v>0.5891002510170759</v>
+        <v>0.1979526723134396</v>
       </c>
     </row>
     <row r="240">
@@ -4913,16 +4913,16 @@
         </is>
       </c>
       <c r="B240">
-        <v>2.207302422613702</v>
+        <v>4.425535373133815</v>
       </c>
       <c r="C240">
-        <v>6.578656332440076</v>
+        <v>5.518835130567136</v>
       </c>
       <c r="D240">
-        <v>0.3355248110057447</v>
+        <v>0.8018966445694549</v>
       </c>
       <c r="E240">
-        <v>0.7372467752218419</v>
+        <v>0.4227139315775044</v>
       </c>
     </row>
     <row r="241">
@@ -4932,16 +4932,16 @@
         </is>
       </c>
       <c r="B241">
-        <v>-0.1377993733682099</v>
+        <v>-0.2638375520041212</v>
       </c>
       <c r="C241">
-        <v>6.58661609000215</v>
+        <v>5.525512571589268</v>
       </c>
       <c r="D241">
-        <v>-0.02092111814097926</v>
+        <v>-0.04774897325556809</v>
       </c>
       <c r="E241">
-        <v>0.983309620833998</v>
+        <v>0.9619213671674942</v>
       </c>
     </row>
     <row r="242">
@@ -4951,16 +4951,16 @@
         </is>
       </c>
       <c r="B242">
-        <v>0.6598304422451434</v>
+        <v>1.335558474155324</v>
       </c>
       <c r="C242">
-        <v>6.586616090002132</v>
+        <v>5.525512571589255</v>
       </c>
       <c r="D242">
-        <v>0.1001774558026396</v>
+        <v>0.2417076165969503</v>
       </c>
       <c r="E242">
-        <v>0.9202084489638706</v>
+        <v>0.8090330459438059</v>
       </c>
     </row>
     <row r="243">
@@ -4970,16 +4970,16 @@
         </is>
       </c>
       <c r="B243">
-        <v>4.151273157263669</v>
+        <v>8.32381452925358</v>
       </c>
       <c r="C243">
-        <v>6.578656332440037</v>
+        <v>5.518835130567138</v>
       </c>
       <c r="D243">
-        <v>0.6310214346953056</v>
+        <v>1.508255697502272</v>
       </c>
       <c r="E243">
-        <v>0.5280624548634556</v>
+        <v>0.1316568520015933</v>
       </c>
     </row>
     <row r="244">
@@ -4989,16 +4989,16 @@
         </is>
       </c>
       <c r="B244">
-        <v>7.49008199364789</v>
+        <v>15.00771985103641</v>
       </c>
       <c r="C244">
-        <v>7.112799211341546</v>
+        <v>5.966927618737971</v>
       </c>
       <c r="D244">
-        <v>1.05304279947967</v>
+        <v>2.51515031017095</v>
       </c>
       <c r="E244">
-        <v>0.2923847927961183</v>
+        <v>0.01198083915485964</v>
       </c>
     </row>
     <row r="245">
@@ -5008,16 +5008,16 @@
         </is>
       </c>
       <c r="B245">
-        <v>10.60516417793995</v>
+        <v>21.24387725133703</v>
       </c>
       <c r="C245">
-        <v>8.276579861620203</v>
+        <v>6.943223265215338</v>
       </c>
       <c r="D245">
-        <v>1.281346202809901</v>
+        <v>3.059656364179752</v>
       </c>
       <c r="E245">
-        <v>0.2001461440090724</v>
+        <v>0.002247169154593635</v>
       </c>
     </row>
     <row r="246">
@@ -5027,16 +5027,16 @@
         </is>
       </c>
       <c r="B246">
-        <v>9.633258166401882</v>
+        <v>19.3048471941338</v>
       </c>
       <c r="C246">
-        <v>8.27657986162018</v>
+        <v>6.943223265215335</v>
       </c>
       <c r="D246">
-        <v>1.163917744704287</v>
+        <v>2.78038692646521</v>
       </c>
       <c r="E246">
-        <v>0.2445265592504444</v>
+        <v>0.005483432876273318</v>
       </c>
     </row>
     <row r="247">
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B247">
-        <v>8.335588509284564</v>
+        <v>16.71318947707799</v>
       </c>
       <c r="C247">
-        <v>8.306797635592096</v>
+        <v>6.968572957331253</v>
       </c>
       <c r="D247">
-        <v>1.00346594138385</v>
+        <v>2.398366147475712</v>
       </c>
       <c r="E247">
-        <v>0.3156966185341638</v>
+        <v>0.01656516833050707</v>
       </c>
     </row>
   </sheetData>
